--- a/input/FilterScripts/other energy filter.xlsx
+++ b/input/FilterScripts/other energy filter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TemplateAutomater\DDP-Reporting-Template-Automation\input\FilterScripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TemplateAutomaterV2\DDPTemplateAutomationV2\input\FilterScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C1251A-1B83-406E-8390-52D8350E4BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963D54D8-FF32-424C-A111-AEFFB7027E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="8415" windowWidth="29040" windowHeight="15840" tabRatio="554" xr2:uid="{93072CBE-95F2-4983-8E5A-0DD653CBAE35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="705" xr2:uid="{93072CBE-95F2-4983-8E5A-0DD653CBAE35}"/>
   </bookViews>
   <sheets>
     <sheet name="OTHER ENERGY SUPPLY (STL)_REF" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5120" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4814" uniqueCount="127">
   <si>
     <t>WorkbookID</t>
   </si>
@@ -176,9 +176,6 @@
     <t>CO2CAPT</t>
   </si>
   <si>
-    <t>['Electricity', 'Crude Oil']</t>
-  </si>
-  <si>
     <t>['Electricity', 'Gas']</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
   </si>
   <si>
     <t>['CrudeRef', 'Extraction-Bio', 'Extraction-Coal', 'Extraction-Oil', 'Extraction-Gas', 'Imports', 'Exports']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Industrial Processes and Product Use </t>
   </si>
   <si>
     <t>['Imports']</t>
@@ -245,31 +239,10 @@
     <t>['Electricity']</t>
   </si>
   <si>
-    <t>['Electricity', 'Coal', 'Gas']</t>
-  </si>
-  <si>
     <t>['Electricity', 'Hydrogen']</t>
   </si>
   <si>
-    <t>['Crude Oil']</t>
-  </si>
-  <si>
-    <t>['Coal', 'Gas']</t>
-  </si>
-  <si>
-    <t>['Biomass']</t>
-  </si>
-  <si>
     <t>['Hydrogen']</t>
-  </si>
-  <si>
-    <t>Naphta</t>
-  </si>
-  <si>
-    <t>Lubricants</t>
-  </si>
-  <si>
-    <t>Bitumen</t>
   </si>
   <si>
     <t>FlowInMt</t>
@@ -278,16 +251,7 @@
     <t>Fischer-Tropsch SynFuel plant for Chemicals and Je</t>
   </si>
   <si>
-    <t>Methane</t>
-  </si>
-  <si>
     <t>['CH4', 'Gas', 'Hydrogen']</t>
-  </si>
-  <si>
-    <t>['CH4', 'Biomass', 'Hydrogen']</t>
-  </si>
-  <si>
-    <t>['CH4', 'Hydrogen']</t>
   </si>
   <si>
     <t>GIM</t>
@@ -439,14 +403,28 @@
   <si>
     <t>NH3G</t>
   </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>['UPSGAS','UPSHEE']</t>
+  </si>
+  <si>
+    <t>['CTL','CTL-Boiler','GTL']</t>
+  </si>
+  <si>
+    <t>['CH4', 'N2O', 'C2F6', 'CF4', 'CH4S', 'CO2S', 'N2O', N2OS']</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -554,7 +532,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -565,11 +543,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -955,27 +933,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C165DF07-9F6B-4997-A141-CF97A620F020}">
   <dimension ref="A1:U527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E152" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E264" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="H157" sqref="H157"/>
+      <selection pane="bottomRight" activeCell="F269" sqref="F269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="1" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="7.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="33.140625" customWidth="1"/>
     <col min="19" max="19" width="56.85546875" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
     <col min="21" max="21" width="17.7109375" customWidth="1"/>
@@ -1096,7 +1076,7 @@
         <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>21</v>
@@ -1126,7 +1106,7 @@
         <v>21</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1153,7 +1133,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>21</v>
@@ -1225,7 +1205,7 @@
         <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>21</v>
@@ -1258,7 +1238,7 @@
         <v>21</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1312,7 +1292,7 @@
         <v>21</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>21</v>
@@ -1375,7 +1355,7 @@
         <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>21</v>
@@ -1441,7 +1421,7 @@
         <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>21</v>
@@ -3145,7 +3125,7 @@
         <v>23</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>21</v>
@@ -3259,7 +3239,7 @@
         <v>23</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>21</v>
@@ -3446,7 +3426,7 @@
         <v>21</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3667,7 +3647,7 @@
         <v>21</v>
       </c>
       <c r="U90" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3723,7 +3703,7 @@
         <v>21</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>21</v>
@@ -3753,7 +3733,7 @@
         <v>21</v>
       </c>
       <c r="U92" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3869,7 +3849,7 @@
         <v>21</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>21</v>
@@ -3899,7 +3879,7 @@
         <v>21</v>
       </c>
       <c r="U97" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3952,7 +3932,7 @@
         <v>21</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>21</v>
@@ -3982,7 +3962,7 @@
         <v>21</v>
       </c>
       <c r="U99" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4018,7 +3998,7 @@
         <v>21</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>21</v>
@@ -4048,7 +4028,7 @@
         <v>21</v>
       </c>
       <c r="U100" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4084,7 +4064,7 @@
         <v>21</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>21</v>
@@ -4150,7 +4130,7 @@
         <v>21</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>21</v>
@@ -4233,7 +4213,7 @@
         <v>21</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>21</v>
@@ -4299,7 +4279,7 @@
         <v>21</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L105" s="2" t="s">
         <v>21</v>
@@ -4365,7 +4345,7 @@
         <v>21</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>21</v>
@@ -4431,7 +4411,7 @@
         <v>21</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>21</v>
@@ -4509,7 +4489,7 @@
         <v>21</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>21</v>
@@ -4575,7 +4555,7 @@
         <v>21</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>21</v>
@@ -4599,7 +4579,7 @@
         <v>21</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="T110" s="1" t="s">
         <v>21</v>
@@ -4641,7 +4621,7 @@
         <v>21</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>21</v>
@@ -4665,7 +4645,7 @@
         <v>21</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="T111" s="1" t="s">
         <v>21</v>
@@ -4704,7 +4684,7 @@
         <v>21</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>21</v>
@@ -4731,7 +4711,7 @@
         <v>21</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="T112" s="1" t="s">
         <v>21</v>
@@ -4770,7 +4750,7 @@
         <v>21</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>21</v>
@@ -4797,7 +4777,7 @@
         <v>21</v>
       </c>
       <c r="S113" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="T113" s="1" t="s">
         <v>21</v>
@@ -4839,7 +4819,7 @@
         <v>21</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>21</v>
@@ -4863,7 +4843,7 @@
         <v>21</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="T114" s="1" t="s">
         <v>21</v>
@@ -4905,7 +4885,7 @@
         <v>21</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L115" s="2" t="s">
         <v>21</v>
@@ -4929,7 +4909,7 @@
         <v>21</v>
       </c>
       <c r="S115" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="T115" s="1" t="s">
         <v>21</v>
@@ -4971,7 +4951,7 @@
         <v>21</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>21</v>
@@ -4995,7 +4975,7 @@
         <v>21</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="T116" s="1" t="s">
         <v>21</v>
@@ -5037,7 +5017,7 @@
         <v>21</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L117" s="2" t="s">
         <v>21</v>
@@ -5061,7 +5041,7 @@
         <v>21</v>
       </c>
       <c r="S117" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="T117" s="1" t="s">
         <v>21</v>
@@ -5126,7 +5106,7 @@
         <v>21</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="L119" s="2" t="s">
         <v>21</v>
@@ -5192,7 +5172,7 @@
         <v>21</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>21</v>
@@ -5258,7 +5238,7 @@
         <v>21</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>21</v>
@@ -5321,7 +5301,7 @@
         <v>21</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>21</v>
@@ -5387,7 +5367,7 @@
         <v>21</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>21</v>
@@ -5456,7 +5436,7 @@
         <v>21</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>21</v>
@@ -5522,7 +5502,7 @@
         <v>21</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>21</v>
@@ -5588,7 +5568,7 @@
         <v>21</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>21</v>
@@ -5651,7 +5631,7 @@
         <v>21</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>21</v>
@@ -5720,7 +5700,7 @@
         <v>21</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>21</v>
@@ -5783,7 +5763,7 @@
         <v>21</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>21</v>
@@ -5852,7 +5832,7 @@
         <v>21</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>21</v>
@@ -5918,7 +5898,7 @@
         <v>21</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>21</v>
@@ -5981,7 +5961,7 @@
         <v>21</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>21</v>
@@ -6047,7 +6027,7 @@
         <v>21</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>21</v>
@@ -6116,7 +6096,7 @@
         <v>21</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L134" s="2" t="s">
         <v>21</v>
@@ -6182,7 +6162,7 @@
         <v>21</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>21</v>
@@ -6248,7 +6228,7 @@
         <v>21</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>21</v>
@@ -6311,7 +6291,7 @@
         <v>21</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K137" s="2" t="s">
         <v>21</v>
@@ -6380,7 +6360,7 @@
         <v>21</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L138" s="2" t="s">
         <v>21</v>
@@ -6446,7 +6426,7 @@
         <v>21</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>21</v>
@@ -6470,7 +6450,7 @@
         <v>21</v>
       </c>
       <c r="S139" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="T139" s="1" t="s">
         <v>21</v>
@@ -6512,7 +6492,7 @@
         <v>21</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>21</v>
@@ -6536,7 +6516,7 @@
         <v>21</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="T140" s="1" t="s">
         <v>21</v>
@@ -6578,7 +6558,7 @@
         <v>21</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L141" s="2" t="s">
         <v>21</v>
@@ -6602,7 +6582,7 @@
         <v>21</v>
       </c>
       <c r="S141" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="T141" s="1" t="s">
         <v>21</v>
@@ -6641,7 +6621,7 @@
         <v>21</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>21</v>
@@ -6668,7 +6648,7 @@
         <v>21</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="T142" s="1" t="s">
         <v>21</v>
@@ -6707,7 +6687,7 @@
         <v>21</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K143" s="2" t="s">
         <v>21</v>
@@ -6734,7 +6714,7 @@
         <v>21</v>
       </c>
       <c r="S143" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="T143" s="1" t="s">
         <v>21</v>
@@ -6776,7 +6756,7 @@
         <v>21</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L144" s="2" t="s">
         <v>21</v>
@@ -6800,7 +6780,7 @@
         <v>21</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="T144" s="1" t="s">
         <v>21</v>
@@ -6842,7 +6822,7 @@
         <v>21</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L145" s="2" t="s">
         <v>21</v>
@@ -6866,7 +6846,7 @@
         <v>21</v>
       </c>
       <c r="S145" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="T145" s="1" t="s">
         <v>21</v>
@@ -6905,7 +6885,7 @@
         <v>21</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="K146" s="2" t="s">
         <v>21</v>
@@ -6932,7 +6912,7 @@
         <v>21</v>
       </c>
       <c r="S146" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="T146" s="1" t="s">
         <v>21</v>
@@ -6974,7 +6954,7 @@
         <v>21</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>21</v>
@@ -6998,7 +6978,7 @@
         <v>21</v>
       </c>
       <c r="S147" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="T147" s="1" t="s">
         <v>21</v>
@@ -7040,7 +7020,7 @@
         <v>21</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L148" s="2" t="s">
         <v>21</v>
@@ -7064,7 +7044,7 @@
         <v>21</v>
       </c>
       <c r="S148" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="T148" s="1" t="s">
         <v>21</v>
@@ -7174,7 +7154,7 @@
         <v>21</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L153" s="2" t="s">
         <v>21</v>
@@ -7198,7 +7178,7 @@
         <v>21</v>
       </c>
       <c r="S153" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="T153" s="1" t="s">
         <v>21</v>
@@ -7240,7 +7220,7 @@
         <v>21</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L154" s="2" t="s">
         <v>21</v>
@@ -7264,7 +7244,7 @@
         <v>21</v>
       </c>
       <c r="S154" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="T154" s="1" t="s">
         <v>21</v>
@@ -7306,7 +7286,7 @@
         <v>21</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>21</v>
@@ -7330,7 +7310,7 @@
         <v>21</v>
       </c>
       <c r="S155" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="T155" s="1" t="s">
         <v>21</v>
@@ -7372,7 +7352,7 @@
         <v>21</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L156" s="2" t="s">
         <v>21</v>
@@ -7396,7 +7376,7 @@
         <v>21</v>
       </c>
       <c r="S156" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="T156" s="1" t="s">
         <v>21</v>
@@ -7438,7 +7418,7 @@
         <v>21</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L157" s="2" t="s">
         <v>21</v>
@@ -7462,7 +7442,7 @@
         <v>21</v>
       </c>
       <c r="S157" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="T157" s="1" t="s">
         <v>21</v>
@@ -7504,7 +7484,7 @@
         <v>21</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L158" s="2" t="s">
         <v>21</v>
@@ -7528,7 +7508,7 @@
         <v>21</v>
       </c>
       <c r="S158" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="T158" s="1" t="s">
         <v>21</v>
@@ -7570,7 +7550,7 @@
         <v>21</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L159" s="2" t="s">
         <v>21</v>
@@ -7594,7 +7574,7 @@
         <v>21</v>
       </c>
       <c r="S159" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="T159" s="1" t="s">
         <v>21</v>
@@ -7636,7 +7616,7 @@
         <v>21</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="L160" s="2" t="s">
         <v>21</v>
@@ -7660,7 +7640,7 @@
         <v>21</v>
       </c>
       <c r="S160" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="T160" s="1" t="s">
         <v>21</v>
@@ -7702,7 +7682,7 @@
         <v>21</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="L161" s="2" t="s">
         <v>21</v>
@@ -7726,7 +7706,7 @@
         <v>21</v>
       </c>
       <c r="S161" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="T161" s="1" t="s">
         <v>21</v>
@@ -7759,7 +7739,7 @@
         <v>23</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>21</v>
@@ -7768,7 +7748,7 @@
         <v>21</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="L162" s="2" t="s">
         <v>21</v>
@@ -7792,7 +7772,7 @@
         <v>21</v>
       </c>
       <c r="S162" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="T162" s="1" t="s">
         <v>21</v>
@@ -7825,7 +7805,7 @@
         <v>23</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I163" s="1" t="s">
         <v>21</v>
@@ -7834,7 +7814,7 @@
         <v>21</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="L163" s="2" t="s">
         <v>21</v>
@@ -7858,7 +7838,7 @@
         <v>21</v>
       </c>
       <c r="S163" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="T163" s="1" t="s">
         <v>21</v>
@@ -7890,8 +7870,8 @@
       <c r="G164" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H164" s="1" t="s">
-        <v>21</v>
+      <c r="H164" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>21</v>
@@ -7900,7 +7880,7 @@
         <v>21</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L164" s="2" t="s">
         <v>21</v>
@@ -7924,7 +7904,7 @@
         <v>21</v>
       </c>
       <c r="S164" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="T164" s="1" t="s">
         <v>21</v>
@@ -7956,8 +7936,8 @@
       <c r="G165" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H165" s="1" t="s">
-        <v>21</v>
+      <c r="H165" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>21</v>
@@ -7966,10 +7946,10 @@
         <v>21</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M165" s="1" t="s">
         <v>21</v>
@@ -8022,8 +8002,8 @@
       <c r="G166" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H166" s="1" t="s">
-        <v>21</v>
+      <c r="H166" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I166" s="1" t="s">
         <v>21</v>
@@ -8032,10 +8012,10 @@
         <v>21</v>
       </c>
       <c r="K166" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L166" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="L166" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="M166" s="1" t="s">
         <v>21</v>
@@ -8088,8 +8068,8 @@
       <c r="G167" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H167" s="1" t="s">
-        <v>21</v>
+      <c r="H167" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I167" s="1" t="s">
         <v>21</v>
@@ -8098,10 +8078,10 @@
         <v>21</v>
       </c>
       <c r="K167" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L167" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="L167" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="M167" s="1" t="s">
         <v>21</v>
@@ -8224,7 +8204,7 @@
         <v>21</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L170" s="2" t="s">
         <v>21</v>
@@ -8269,7 +8249,7 @@
         <v>195</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>21</v>
@@ -8281,7 +8261,7 @@
         <v>23</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I171" s="1" t="s">
         <v>21</v>
@@ -8335,10 +8315,10 @@
         <v>196</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>22</v>
@@ -8401,10 +8381,10 @@
         <v>197</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>22</v>
@@ -8522,13 +8502,13 @@
         <v>23</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K176" s="2" t="s">
         <v>21</v>
@@ -8555,7 +8535,7 @@
         <v>21</v>
       </c>
       <c r="S176" s="2" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="T176" s="1" t="s">
         <v>21</v>
@@ -8588,16 +8568,16 @@
         <v>23</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="L177" s="2" t="s">
         <v>21</v>
@@ -8621,7 +8601,7 @@
         <v>21</v>
       </c>
       <c r="S177" s="2" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="T177" s="1" t="s">
         <v>21</v>
@@ -8654,16 +8634,16 @@
         <v>23</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I178" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="L178" s="2" t="s">
         <v>21</v>
@@ -8687,7 +8667,7 @@
         <v>21</v>
       </c>
       <c r="S178" s="2" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="T178" s="1" t="s">
         <v>21</v>
@@ -8720,16 +8700,16 @@
         <v>23</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I179" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="L179" s="2" t="s">
         <v>21</v>
@@ -8753,7 +8733,7 @@
         <v>21</v>
       </c>
       <c r="S179" s="2" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="T179" s="1" t="s">
         <v>21</v>
@@ -8788,11 +8768,11 @@
       <c r="H180" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I180" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J180" s="1" t="s">
-        <v>61</v>
+      <c r="I180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="K180" s="2" t="s">
         <v>21</v>
@@ -8800,32 +8780,32 @@
       <c r="L180" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M180" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O180" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P180" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q180" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R180" s="1" t="s">
+      <c r="M180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R180" s="2" t="s">
         <v>21</v>
       </c>
       <c r="S180" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T180" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T180" s="2" t="s">
         <v>21</v>
       </c>
       <c r="U180" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="181" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8846,24 +8826,24 @@
         <v>21</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H181" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K181" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L181" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M181" s="1" t="s">
@@ -8884,14 +8864,14 @@
       <c r="R181" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S181" s="2" t="s">
+      <c r="S181" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T181" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U181" s="2" t="s">
-        <v>31</v>
+      <c r="U181" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="182" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8912,24 +8892,24 @@
         <v>21</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K182" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L182" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M182" s="1" t="s">
@@ -8950,14 +8930,14 @@
       <c r="R182" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S182" s="2" t="s">
-        <v>71</v>
+      <c r="S182" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="T182" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U182" s="2" t="s">
-        <v>31</v>
+      <c r="U182" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="183" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8975,27 +8955,27 @@
         <v>21</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H183" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H183" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L183" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M183" s="1" t="s">
@@ -9016,13 +8996,13 @@
       <c r="R183" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S183" s="2" t="s">
-        <v>72</v>
+      <c r="S183" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="T183" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U183" s="2" t="s">
+      <c r="U183" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9044,24 +9024,24 @@
         <v>21</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H184" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K184" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L184" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M184" s="1" t="s">
@@ -9082,14 +9062,14 @@
       <c r="R184" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S184" s="2" t="s">
-        <v>73</v>
+      <c r="S184" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="T184" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U184" s="2" t="s">
-        <v>31</v>
+      <c r="U184" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="185" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9110,24 +9090,24 @@
         <v>21</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K185" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M185" s="1" t="s">
@@ -9148,14 +9128,14 @@
       <c r="R185" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S185" s="2" t="s">
-        <v>74</v>
+      <c r="S185" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="T185" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U185" s="2" t="s">
-        <v>31</v>
+      <c r="U185" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="186" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9205,7 +9185,7 @@
         <v>21</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K187" s="2" t="s">
         <v>21</v>
@@ -9271,10 +9251,10 @@
         <v>21</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="L188" s="2" t="s">
         <v>21</v>
@@ -9298,7 +9278,7 @@
         <v>21</v>
       </c>
       <c r="S188" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="T188" s="1" t="s">
         <v>21</v>
@@ -9337,10 +9317,10 @@
         <v>21</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="L189" s="2" t="s">
         <v>21</v>
@@ -9364,7 +9344,7 @@
         <v>21</v>
       </c>
       <c r="S189" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="T189" s="1" t="s">
         <v>21</v>
@@ -9403,10 +9383,10 @@
         <v>21</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="L190" s="2" t="s">
         <v>21</v>
@@ -9430,7 +9410,7 @@
         <v>21</v>
       </c>
       <c r="S190" s="2" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="T190" s="1" t="s">
         <v>21</v>
@@ -9450,60 +9430,13 @@
         <f t="shared" si="2"/>
         <v>215</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H191" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I191" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J191" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K191" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L191" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M191" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O191" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P191" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q191" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R191" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S191" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T191" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U191" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
+      <c r="O191" s="2"/>
+      <c r="S191" s="2"/>
+      <c r="U191" s="2"/>
     </row>
     <row r="192" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
@@ -9529,13 +9462,13 @@
         <v>23</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="I192" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K192" s="2" t="s">
         <v>21</v>
@@ -9595,16 +9528,16 @@
         <v>23</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="L193" s="2" t="s">
         <v>21</v>
@@ -9628,7 +9561,7 @@
         <v>21</v>
       </c>
       <c r="S193" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="T193" s="1" t="s">
         <v>21</v>
@@ -9661,16 +9594,16 @@
         <v>23</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="I194" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="L194" s="2" t="s">
         <v>21</v>
@@ -9694,7 +9627,7 @@
         <v>21</v>
       </c>
       <c r="S194" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="T194" s="1" t="s">
         <v>21</v>
@@ -9727,16 +9660,16 @@
         <v>23</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="I195" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="L195" s="2" t="s">
         <v>21</v>
@@ -9760,7 +9693,7 @@
         <v>21</v>
       </c>
       <c r="S195" s="2" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="T195" s="1" t="s">
         <v>21</v>
@@ -9780,60 +9713,13 @@
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H196" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I196" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J196" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K196" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L196" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M196" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O196" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P196" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q196" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R196" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S196" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T196" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U196" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+      <c r="O196" s="2"/>
+      <c r="S196" s="2"/>
+      <c r="U196" s="2"/>
     </row>
     <row r="197" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
@@ -9865,7 +9751,7 @@
         <v>21</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K197" s="2" t="s">
         <v>21</v>
@@ -9931,10 +9817,10 @@
         <v>21</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="L198" s="2" t="s">
         <v>21</v>
@@ -9958,7 +9844,7 @@
         <v>21</v>
       </c>
       <c r="S198" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="T198" s="1" t="s">
         <v>21</v>
@@ -9997,10 +9883,10 @@
         <v>21</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="L199" s="2" t="s">
         <v>21</v>
@@ -10024,7 +9910,7 @@
         <v>21</v>
       </c>
       <c r="S199" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="T199" s="1" t="s">
         <v>21</v>
@@ -10063,10 +9949,10 @@
         <v>21</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="L200" s="2" t="s">
         <v>21</v>
@@ -10090,7 +9976,7 @@
         <v>21</v>
       </c>
       <c r="S200" s="2" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="T200" s="1" t="s">
         <v>21</v>
@@ -10110,60 +9996,13 @@
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H201" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I201" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J201" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K201" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L201" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M201" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O201" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P201" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q201" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R201" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S201" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T201" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U201" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="K201" s="2"/>
+      <c r="L201" s="2"/>
+      <c r="O201" s="2"/>
+      <c r="S201" s="2"/>
+      <c r="U201" s="2"/>
     </row>
     <row r="202" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
@@ -10189,13 +10028,13 @@
         <v>23</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="I202" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K202" s="2" t="s">
         <v>21</v>
@@ -10255,16 +10094,16 @@
         <v>23</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="I203" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K203" s="2" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="L203" s="2" t="s">
         <v>21</v>
@@ -10288,7 +10127,7 @@
         <v>21</v>
       </c>
       <c r="S203" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="T203" s="1" t="s">
         <v>21</v>
@@ -10321,16 +10160,16 @@
         <v>23</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="I204" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="L204" s="2" t="s">
         <v>21</v>
@@ -10354,7 +10193,7 @@
         <v>21</v>
       </c>
       <c r="S204" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="T204" s="1" t="s">
         <v>21</v>
@@ -10387,16 +10226,16 @@
         <v>23</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="I205" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K205" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="L205" s="2" t="s">
         <v>21</v>
@@ -10420,7 +10259,7 @@
         <v>21</v>
       </c>
       <c r="S205" s="2" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="T205" s="1" t="s">
         <v>21</v>
@@ -10453,13 +10292,13 @@
         <v>23</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="I206" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K206" s="2" t="s">
         <v>21</v>
@@ -10486,7 +10325,7 @@
         <v>21</v>
       </c>
       <c r="S206" s="2" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="T206" s="1" t="s">
         <v>21</v>
@@ -10534,7 +10373,7 @@
         <v>45</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K208" s="2" t="s">
         <v>21</v>
@@ -10597,10 +10436,10 @@
         <v>45</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K209" s="2" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="L209" s="2" t="s">
         <v>21</v>
@@ -10624,7 +10463,7 @@
         <v>21</v>
       </c>
       <c r="S209" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="T209" s="2" t="s">
         <v>21</v>
@@ -10668,57 +10507,18 @@
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H212" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J212" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K212" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L212" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M212" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N212" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O212" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P212" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q212" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R212" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S212" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T212" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U212" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+      <c r="L212" s="2"/>
+      <c r="M212" s="2"/>
+      <c r="N212" s="2"/>
+      <c r="O212" s="2"/>
+      <c r="P212" s="2"/>
+      <c r="Q212" s="2"/>
+      <c r="R212" s="2"/>
+      <c r="S212" s="2"/>
     </row>
     <row r="213" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
@@ -10731,57 +10531,18 @@
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H213" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J213" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K213" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L213" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M213" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N213" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O213" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P213" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q213" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R213" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S213" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T213" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U213" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="2"/>
+      <c r="M213" s="2"/>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
+      <c r="P213" s="2"/>
+      <c r="Q213" s="2"/>
+      <c r="R213" s="2"/>
+      <c r="S213" s="2"/>
     </row>
     <row r="214" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
@@ -10794,57 +10555,18 @@
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H214" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J214" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K214" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L214" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M214" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N214" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O214" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P214" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q214" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R214" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S214" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="T214" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U214" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
+      <c r="L214" s="2"/>
+      <c r="M214" s="2"/>
+      <c r="N214" s="2"/>
+      <c r="O214" s="2"/>
+      <c r="P214" s="2"/>
+      <c r="Q214" s="2"/>
+      <c r="R214" s="2"/>
+      <c r="S214" s="2"/>
     </row>
     <row r="215" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
@@ -10857,57 +10579,9 @@
         <f t="shared" si="3"/>
         <v>239</v>
       </c>
-      <c r="D215" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G215" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H215" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J215" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K215" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L215" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M215" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N215" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O215" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P215" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q215" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R215" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S215" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T215" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U215" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="H215" s="2"/>
+      <c r="N215" s="2"/>
+      <c r="S215" s="2"/>
     </row>
     <row r="216" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
@@ -10920,57 +10594,18 @@
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="D216" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H216" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J216" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K216" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L216" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M216" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N216" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O216" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P216" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q216" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R216" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S216" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T216" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U216" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="2"/>
+      <c r="L216" s="2"/>
+      <c r="M216" s="2"/>
+      <c r="N216" s="2"/>
+      <c r="O216" s="2"/>
+      <c r="P216" s="2"/>
+      <c r="Q216" s="2"/>
+      <c r="R216" s="2"/>
+      <c r="S216" s="2"/>
     </row>
     <row r="217" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
@@ -11019,7 +10654,7 @@
         <v>21</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K218" s="1" t="s">
         <v>21</v>
@@ -11046,13 +10681,13 @@
         <v>21</v>
       </c>
       <c r="S218" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="T218" s="1" t="s">
         <v>21</v>
       </c>
       <c r="U218" s="2" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -11085,7 +10720,7 @@
         <v>21</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K219" s="1" t="s">
         <v>21</v>
@@ -11112,7 +10747,7 @@
         <v>21</v>
       </c>
       <c r="S219" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="T219" s="1" t="s">
         <v>21</v>
@@ -11166,11 +10801,60 @@
         <f t="shared" si="3"/>
         <v>246</v>
       </c>
-      <c r="G222" s="2"/>
-      <c r="H222" s="2"/>
-      <c r="J222" s="2"/>
-      <c r="K222" s="2"/>
-      <c r="L222" s="2"/>
+      <c r="D222" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J222" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K222" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M222" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N222" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O222" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P222" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q222" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R222" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S222" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T222" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U222" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="223" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
@@ -11224,60 +10908,12 @@
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G226" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H226" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I226" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J226" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K226" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L226" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M226" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O226" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P226" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q226" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R226" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S226" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T226" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U226" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="G226" s="2"/>
+      <c r="H226" s="2"/>
+      <c r="J226" s="2"/>
+      <c r="K226" s="2"/>
+      <c r="L226" s="2"/>
+      <c r="M226" s="2"/>
     </row>
     <row r="227" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
@@ -11290,60 +10926,13 @@
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
-      <c r="D227" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H227" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I227" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J227" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K227" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L227" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M227" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N227" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O227" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P227" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q227" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R227" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S227" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T227" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U227" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="J227" s="2"/>
+      <c r="K227" s="2"/>
+      <c r="L227" s="2"/>
+      <c r="M227" s="2"/>
+      <c r="S227" s="2"/>
     </row>
     <row r="228" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
@@ -11356,60 +10945,13 @@
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H228" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I228" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J228" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K228" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L228" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M228" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N228" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O228" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P228" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q228" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R228" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S228" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T228" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U228" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="J228" s="2"/>
+      <c r="K228" s="2"/>
+      <c r="L228" s="2"/>
+      <c r="M228" s="2"/>
+      <c r="S228" s="2"/>
     </row>
     <row r="229" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
@@ -11444,13 +10986,13 @@
         <v>21</v>
       </c>
       <c r="K229" s="2" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="L229" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M229" s="2" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="N229" s="1" t="s">
         <v>21</v>
@@ -11474,7 +11016,7 @@
         <v>21</v>
       </c>
       <c r="U229" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="230" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11510,13 +11052,13 @@
         <v>21</v>
       </c>
       <c r="K230" s="2" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="L230" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M230" s="2" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="N230" s="1" t="s">
         <v>21</v>
@@ -11540,7 +11082,7 @@
         <v>21</v>
       </c>
       <c r="U230" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="231" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11576,13 +11118,13 @@
         <v>21</v>
       </c>
       <c r="K231" s="2" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="L231" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M231" s="2" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="N231" s="1" t="s">
         <v>21</v>
@@ -11600,13 +11142,13 @@
         <v>21</v>
       </c>
       <c r="S231" s="2" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="T231" s="1" t="s">
         <v>21</v>
       </c>
       <c r="U231" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="232" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11649,11 +11191,60 @@
         <f t="shared" si="3"/>
         <v>258</v>
       </c>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
-      <c r="J234" s="2"/>
-      <c r="K234" s="2"/>
-      <c r="L234" s="2"/>
+      <c r="D234" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H234" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J234" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K234" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L234" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M234" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N234" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O234" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P234" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q234" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R234" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S234" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T234" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U234" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="235" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
@@ -11771,6 +11362,60 @@
         <f t="shared" si="3"/>
         <v>267</v>
       </c>
+      <c r="D243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H243" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J243" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K243" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L243" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M243" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T243" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U243" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="244" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
@@ -11819,6 +11464,12 @@
         <f t="shared" si="3"/>
         <v>271</v>
       </c>
+      <c r="G247" s="2"/>
+      <c r="H247" s="2"/>
+      <c r="J247" s="2"/>
+      <c r="K247" s="2"/>
+      <c r="L247" s="2"/>
+      <c r="M247" s="2"/>
     </row>
     <row r="248" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
@@ -11955,7 +11606,7 @@
         <v>21</v>
       </c>
       <c r="M256" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="N256" s="1" t="s">
         <v>21</v>
@@ -11973,7 +11624,7 @@
         <v>21</v>
       </c>
       <c r="S256" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T256" s="1" t="s">
         <v>21</v>
@@ -12021,7 +11672,7 @@
         <v>21</v>
       </c>
       <c r="M257" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="N257" s="1" t="s">
         <v>21</v>
@@ -12039,7 +11690,7 @@
         <v>21</v>
       </c>
       <c r="S257" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T257" s="1" t="s">
         <v>21</v>
@@ -12138,60 +11789,24 @@
         <f t="shared" si="4"/>
         <v>288</v>
       </c>
-      <c r="D264" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F264" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G264" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H264" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I264" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J264" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K264" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L264" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M264" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N264" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O264" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P264" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q264" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R264" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S264" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="T264" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U264" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="1"/>
+      <c r="J264" s="1"/>
+      <c r="K264" s="1"/>
+      <c r="L264" s="1"/>
+      <c r="M264" s="1"/>
+      <c r="N264" s="1"/>
+      <c r="O264" s="1"/>
+      <c r="P264" s="1"/>
+      <c r="Q264" s="1"/>
+      <c r="R264" s="1"/>
+      <c r="S264" s="1"/>
+      <c r="T264" s="1"/>
+      <c r="U264" s="2"/>
     </row>
     <row r="265" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
@@ -12204,60 +11819,7 @@
         <f t="shared" si="4"/>
         <v>289</v>
       </c>
-      <c r="D265" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G265" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H265" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I265" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J265" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K265" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L265" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M265" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N265" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O265" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P265" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q265" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R265" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S265" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T265" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U265" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U265" s="2"/>
     </row>
     <row r="266" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
@@ -12270,60 +11832,7 @@
         <f t="shared" si="4"/>
         <v>290</v>
       </c>
-      <c r="D266" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F266" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G266" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H266" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I266" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J266" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K266" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L266" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M266" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N266" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O266" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P266" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q266" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R266" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S266" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T266" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U266" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U266" s="2"/>
     </row>
     <row r="267" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
@@ -12336,60 +11845,7 @@
         <f t="shared" si="4"/>
         <v>291</v>
       </c>
-      <c r="D267" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F267" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G267" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H267" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I267" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J267" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K267" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L267" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M267" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N267" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O267" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P267" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q267" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R267" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S267" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T267" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U267" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U267" s="2"/>
     </row>
     <row r="268" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
@@ -12402,60 +11858,7 @@
         <f t="shared" si="4"/>
         <v>292</v>
       </c>
-      <c r="D268" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F268" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G268" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H268" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I268" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J268" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K268" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L268" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M268" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N268" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O268" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P268" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q268" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R268" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S268" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T268" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U268" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U268" s="2"/>
     </row>
     <row r="269" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
@@ -12468,60 +11871,7 @@
         <f t="shared" si="4"/>
         <v>293</v>
       </c>
-      <c r="D269" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F269" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G269" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H269" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I269" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J269" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K269" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L269" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M269" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N269" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O269" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P269" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q269" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R269" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S269" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T269" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U269" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U269" s="2"/>
     </row>
     <row r="270" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
@@ -12534,60 +11884,7 @@
         <f t="shared" si="4"/>
         <v>294</v>
       </c>
-      <c r="D270" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F270" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G270" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H270" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I270" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J270" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K270" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L270" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M270" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N270" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O270" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P270" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q270" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R270" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S270" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="T270" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U270" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U270" s="2"/>
     </row>
     <row r="271" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
@@ -12600,60 +11897,7 @@
         <f t="shared" si="4"/>
         <v>295</v>
       </c>
-      <c r="D271" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F271" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G271" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H271" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I271" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J271" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K271" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L271" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M271" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N271" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O271" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P271" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q271" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R271" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S271" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T271" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U271" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U271" s="2"/>
     </row>
     <row r="272" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
@@ -12666,60 +11910,7 @@
         <f t="shared" si="4"/>
         <v>296</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F272" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G272" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H272" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I272" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J272" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K272" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L272" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M272" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N272" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O272" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P272" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q272" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R272" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S272" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T272" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U272" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="U272" s="2"/>
     </row>
     <row r="273" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
@@ -12732,60 +11923,9 @@
         <f t="shared" si="4"/>
         <v>297</v>
       </c>
-      <c r="D273" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F273" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G273" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H273" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I273" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J273" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K273" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L273" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M273" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N273" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O273" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P273" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q273" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R273" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S273" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T273" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U273" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="H273" s="2"/>
+      <c r="S273" s="2"/>
+      <c r="U273" s="2"/>
     </row>
     <row r="274" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
@@ -12814,7 +11954,7 @@
         <v>21</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>22</v>
@@ -12829,7 +11969,7 @@
         <v>21</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K275" s="1" t="s">
         <v>21</v>
@@ -12856,7 +11996,7 @@
         <v>21</v>
       </c>
       <c r="S275" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T275" s="1" t="s">
         <v>21</v>
@@ -12880,7 +12020,7 @@
         <v>21</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>22</v>
@@ -12895,7 +12035,7 @@
         <v>21</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K276" s="1" t="s">
         <v>21</v>
@@ -12922,7 +12062,7 @@
         <v>21</v>
       </c>
       <c r="S276" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T276" s="1" t="s">
         <v>21</v>
@@ -12946,7 +12086,7 @@
         <v>21</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>22</v>
@@ -12961,7 +12101,7 @@
         <v>21</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K277" s="1" t="s">
         <v>21</v>
@@ -12988,7 +12128,7 @@
         <v>21</v>
       </c>
       <c r="S277" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="T277" s="1" t="s">
         <v>21</v>
@@ -13012,7 +12152,7 @@
         <v>21</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>22</v>
@@ -13027,7 +12167,7 @@
         <v>21</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K278" s="1" t="s">
         <v>21</v>
@@ -13036,7 +12176,7 @@
         <v>21</v>
       </c>
       <c r="M278" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="N278" s="1" t="s">
         <v>21</v>
@@ -13054,7 +12194,7 @@
         <v>21</v>
       </c>
       <c r="S278" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T278" s="1" t="s">
         <v>21</v>
@@ -13078,7 +12218,7 @@
         <v>21</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>22</v>
@@ -13093,7 +12233,7 @@
         <v>21</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K279" s="1" t="s">
         <v>21</v>
@@ -13120,7 +12260,7 @@
         <v>21</v>
       </c>
       <c r="S279" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T279" s="1" t="s">
         <v>21</v>
@@ -13144,7 +12284,7 @@
         <v>21</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>22</v>
@@ -13159,7 +12299,7 @@
         <v>21</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K280" s="1" t="s">
         <v>21</v>
@@ -13210,7 +12350,7 @@
         <v>21</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>22</v>
@@ -13225,7 +12365,7 @@
         <v>21</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K281" s="1" t="s">
         <v>21</v>
@@ -13276,7 +12416,7 @@
         <v>21</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>22</v>
@@ -13291,7 +12431,7 @@
         <v>21</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K282" s="1" t="s">
         <v>21</v>
@@ -13342,7 +12482,7 @@
         <v>21</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>22</v>
@@ -13357,7 +12497,7 @@
         <v>21</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K283" s="1" t="s">
         <v>21</v>
@@ -13366,7 +12506,7 @@
         <v>21</v>
       </c>
       <c r="M283" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="N283" s="1" t="s">
         <v>21</v>
@@ -13408,7 +12548,7 @@
         <v>21</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>22</v>
@@ -13423,7 +12563,7 @@
         <v>21</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K284" s="1" t="s">
         <v>21</v>
@@ -13486,7 +12626,7 @@
         <v>21</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>22</v>
@@ -13501,7 +12641,7 @@
         <v>21</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K286" s="1" t="s">
         <v>21</v>
@@ -13528,7 +12668,7 @@
         <v>21</v>
       </c>
       <c r="S286" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="T286" s="1" t="s">
         <v>21</v>
@@ -13552,7 +12692,7 @@
         <v>21</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>22</v>
@@ -13567,7 +12707,7 @@
         <v>21</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K287" s="1" t="s">
         <v>21</v>
@@ -13594,7 +12734,7 @@
         <v>21</v>
       </c>
       <c r="S287" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="T287" s="1" t="s">
         <v>21</v>
@@ -13618,7 +12758,7 @@
         <v>21</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>22</v>
@@ -13633,7 +12773,7 @@
         <v>21</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K288" s="1" t="s">
         <v>21</v>
@@ -13660,7 +12800,7 @@
         <v>21</v>
       </c>
       <c r="S288" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T288" s="1" t="s">
         <v>21</v>
@@ -13684,7 +12824,7 @@
         <v>21</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>22</v>
@@ -13699,7 +12839,7 @@
         <v>21</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K289" s="1" t="s">
         <v>21</v>
@@ -13708,7 +12848,7 @@
         <v>21</v>
       </c>
       <c r="M289" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="N289" s="1" t="s">
         <v>21</v>
@@ -13726,7 +12866,7 @@
         <v>21</v>
       </c>
       <c r="S289" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="T289" s="1" t="s">
         <v>21</v>
@@ -13750,7 +12890,7 @@
         <v>21</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>22</v>
@@ -13765,7 +12905,7 @@
         <v>21</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K290" s="1" t="s">
         <v>21</v>
@@ -13792,7 +12932,7 @@
         <v>21</v>
       </c>
       <c r="S290" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="T290" s="1" t="s">
         <v>21</v>
@@ -13816,7 +12956,7 @@
         <v>21</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>22</v>
@@ -13831,7 +12971,7 @@
         <v>21</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K291" s="1" t="s">
         <v>21</v>
@@ -13858,7 +12998,7 @@
         <v>21</v>
       </c>
       <c r="S291" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="T291" s="1" t="s">
         <v>21</v>
@@ -13882,7 +13022,7 @@
         <v>21</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>22</v>
@@ -13897,7 +13037,7 @@
         <v>21</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K292" s="1" t="s">
         <v>21</v>
@@ -13924,7 +13064,7 @@
         <v>21</v>
       </c>
       <c r="S292" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="T292" s="1" t="s">
         <v>21</v>
@@ -13948,7 +13088,7 @@
         <v>21</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>22</v>
@@ -13963,7 +13103,7 @@
         <v>21</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K293" s="1" t="s">
         <v>21</v>
@@ -13990,7 +13130,7 @@
         <v>21</v>
       </c>
       <c r="S293" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T293" s="1" t="s">
         <v>21</v>
@@ -14014,7 +13154,7 @@
         <v>21</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>22</v>
@@ -14029,7 +13169,7 @@
         <v>21</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K294" s="1" t="s">
         <v>21</v>
@@ -14038,7 +13178,7 @@
         <v>21</v>
       </c>
       <c r="M294" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="N294" s="1" t="s">
         <v>21</v>
@@ -14056,7 +13196,7 @@
         <v>21</v>
       </c>
       <c r="S294" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="T294" s="1" t="s">
         <v>21</v>
@@ -14080,7 +13220,7 @@
         <v>21</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>22</v>
@@ -14095,7 +13235,7 @@
         <v>21</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K295" s="1" t="s">
         <v>21</v>
@@ -14122,7 +13262,7 @@
         <v>21</v>
       </c>
       <c r="S295" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="T295" s="1" t="s">
         <v>21</v>
@@ -14146,7 +13286,7 @@
         <v>21</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>22</v>
@@ -14161,7 +13301,7 @@
         <v>21</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K296" s="1" t="s">
         <v>21</v>
@@ -14188,7 +13328,7 @@
         <v>21</v>
       </c>
       <c r="S296" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="T296" s="1" t="s">
         <v>21</v>
@@ -14212,7 +13352,7 @@
         <v>21</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>22</v>
@@ -14227,7 +13367,7 @@
         <v>21</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K297" s="1" t="s">
         <v>21</v>
@@ -14254,7 +13394,7 @@
         <v>21</v>
       </c>
       <c r="S297" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="T297" s="1" t="s">
         <v>21</v>
@@ -14278,7 +13418,7 @@
         <v>21</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>22</v>
@@ -14293,7 +13433,7 @@
         <v>21</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K298" s="1" t="s">
         <v>21</v>
@@ -14320,7 +13460,7 @@
         <v>21</v>
       </c>
       <c r="S298" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T298" s="1" t="s">
         <v>21</v>
@@ -14344,7 +13484,7 @@
         <v>21</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>22</v>
@@ -14359,7 +13499,7 @@
         <v>21</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K299" s="1" t="s">
         <v>21</v>
@@ -14368,7 +13508,7 @@
         <v>21</v>
       </c>
       <c r="M299" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="N299" s="1" t="s">
         <v>21</v>
@@ -14386,7 +13526,7 @@
         <v>21</v>
       </c>
       <c r="S299" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="T299" s="1" t="s">
         <v>21</v>
@@ -14410,7 +13550,7 @@
         <v>21</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>22</v>
@@ -14425,7 +13565,7 @@
         <v>21</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K300" s="1" t="s">
         <v>21</v>
@@ -14452,7 +13592,7 @@
         <v>21</v>
       </c>
       <c r="S300" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="T300" s="1" t="s">
         <v>21</v>
@@ -14476,7 +13616,7 @@
         <v>21</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>22</v>
@@ -14491,7 +13631,7 @@
         <v>21</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K301" s="1" t="s">
         <v>21</v>
@@ -14518,7 +13658,7 @@
         <v>21</v>
       </c>
       <c r="S301" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="T301" s="1" t="s">
         <v>21</v>
@@ -14542,7 +13682,7 @@
         <v>21</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>22</v>
@@ -14557,7 +13697,7 @@
         <v>21</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K302" s="1" t="s">
         <v>21</v>
@@ -14584,7 +13724,7 @@
         <v>21</v>
       </c>
       <c r="S302" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="T302" s="1" t="s">
         <v>21</v>
@@ -14608,7 +13748,7 @@
         <v>21</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>22</v>
@@ -14623,7 +13763,7 @@
         <v>21</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K303" s="1" t="s">
         <v>21</v>
@@ -14650,7 +13790,7 @@
         <v>21</v>
       </c>
       <c r="S303" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="T303" s="1" t="s">
         <v>21</v>
@@ -14674,7 +13814,7 @@
         <v>21</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>22</v>
@@ -14689,7 +13829,7 @@
         <v>21</v>
       </c>
       <c r="J304" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K304" s="1" t="s">
         <v>21</v>
@@ -14698,7 +13838,7 @@
         <v>21</v>
       </c>
       <c r="M304" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="N304" s="1" t="s">
         <v>21</v>
@@ -14716,7 +13856,7 @@
         <v>21</v>
       </c>
       <c r="S304" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="T304" s="1" t="s">
         <v>21</v>
@@ -14740,7 +13880,7 @@
         <v>21</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>22</v>
@@ -14755,7 +13895,7 @@
         <v>21</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K305" s="1" t="s">
         <v>21</v>
@@ -14782,7 +13922,7 @@
         <v>21</v>
       </c>
       <c r="S305" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="T305" s="1" t="s">
         <v>21</v>
@@ -14818,7 +13958,7 @@
         <v>21</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>22</v>
@@ -14833,7 +13973,7 @@
         <v>21</v>
       </c>
       <c r="J307" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K307" s="1" t="s">
         <v>21</v>
@@ -14860,7 +14000,7 @@
         <v>21</v>
       </c>
       <c r="S307" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="T307" s="1" t="s">
         <v>21</v>
@@ -15385,7 +14525,7 @@
         <v>21</v>
       </c>
       <c r="L348" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="M348" s="1" t="s">
         <v>21</v>
@@ -15406,7 +14546,7 @@
         <v>21</v>
       </c>
       <c r="S348" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T348" s="1" t="s">
         <v>21</v>
@@ -15451,7 +14591,7 @@
         <v>21</v>
       </c>
       <c r="M349" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="N349" s="1" t="s">
         <v>21</v>
@@ -15469,7 +14609,7 @@
         <v>21</v>
       </c>
       <c r="S349" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T349" s="1" t="s">
         <v>21</v>
@@ -15511,7 +14651,7 @@
         <v>21</v>
       </c>
       <c r="L350" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="M350" s="1" t="s">
         <v>21</v>
@@ -15532,7 +14672,7 @@
         <v>21</v>
       </c>
       <c r="S350" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T350" s="2" t="s">
         <v>31</v>
@@ -15577,7 +14717,7 @@
         <v>21</v>
       </c>
       <c r="M351" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="N351" s="1" t="s">
         <v>21</v>
@@ -15595,7 +14735,7 @@
         <v>21</v>
       </c>
       <c r="S351" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T351" s="2" t="s">
         <v>31</v>
@@ -15649,7 +14789,7 @@
         <v>21</v>
       </c>
       <c r="L353" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="M353" s="1" t="s">
         <v>21</v>
@@ -15670,7 +14810,7 @@
         <v>21</v>
       </c>
       <c r="S353" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="T353" s="1" t="s">
         <v>21</v>
@@ -15703,7 +14843,7 @@
         <v>21</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>22</v>
@@ -15727,7 +14867,7 @@
         <v>21</v>
       </c>
       <c r="M355" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="N355" s="1" t="s">
         <v>21</v>
@@ -15766,7 +14906,7 @@
         <v>21</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>22</v>
@@ -15790,7 +14930,7 @@
         <v>21</v>
       </c>
       <c r="M356" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="N356" s="1" t="s">
         <v>21</v>
@@ -15940,7 +15080,7 @@
         <v>21</v>
       </c>
       <c r="J365" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K365" s="1" t="s">
         <v>21</v>
@@ -16015,7 +15155,7 @@
         <v>21</v>
       </c>
       <c r="J367" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K367" s="1" t="s">
         <v>21</v>
@@ -16042,7 +15182,7 @@
         <v>21</v>
       </c>
       <c r="S367" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="T367" s="1" t="s">
         <v>21</v>
@@ -16090,7 +15230,7 @@
         <v>21</v>
       </c>
       <c r="J369" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K369" s="1" t="s">
         <v>21</v>
@@ -16117,7 +15257,7 @@
         <v>21</v>
       </c>
       <c r="S369" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="T369" s="1" t="s">
         <v>21</v>
@@ -16153,7 +15293,7 @@
         <v>21</v>
       </c>
       <c r="J370" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K370" s="1" t="s">
         <v>21</v>
@@ -16216,7 +15356,7 @@
         <v>21</v>
       </c>
       <c r="J371" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K371" s="1" t="s">
         <v>21</v>
@@ -16243,7 +15383,7 @@
         <v>21</v>
       </c>
       <c r="S371" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="T371" s="1" t="s">
         <v>21</v>
@@ -16279,7 +15419,7 @@
         <v>21</v>
       </c>
       <c r="J372" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K372" s="1" t="s">
         <v>21</v>
@@ -16306,7 +15446,7 @@
         <v>21</v>
       </c>
       <c r="S372" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="T372" s="1" t="s">
         <v>21</v>
@@ -16342,7 +15482,7 @@
         <v>21</v>
       </c>
       <c r="J373" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K373" s="1" t="s">
         <v>21</v>
@@ -16369,7 +15509,7 @@
         <v>21</v>
       </c>
       <c r="S373" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="T373" s="1" t="s">
         <v>21</v>
@@ -16405,7 +15545,7 @@
         <v>21</v>
       </c>
       <c r="J374" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K374" s="1" t="s">
         <v>21</v>
@@ -16429,7 +15569,7 @@
         <v>21</v>
       </c>
       <c r="R374" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="S374" s="1" t="s">
         <v>21</v>
@@ -16480,7 +15620,7 @@
         <v>21</v>
       </c>
       <c r="J376" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K376" s="1" t="s">
         <v>21</v>
@@ -16507,7 +15647,7 @@
         <v>21</v>
       </c>
       <c r="S376" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="T376" s="1" t="s">
         <v>21</v>
@@ -16546,7 +15686,7 @@
         <v>21</v>
       </c>
       <c r="J377" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K377" s="1" t="s">
         <v>21</v>
@@ -16612,7 +15752,7 @@
         <v>21</v>
       </c>
       <c r="J378" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K378" s="1" t="s">
         <v>21</v>
@@ -16678,7 +15818,7 @@
         <v>21</v>
       </c>
       <c r="J379" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K379" s="1" t="s">
         <v>21</v>
@@ -16705,7 +15845,7 @@
         <v>21</v>
       </c>
       <c r="S379" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="T379" s="1" t="s">
         <v>21</v>
@@ -16744,7 +15884,7 @@
         <v>21</v>
       </c>
       <c r="J380" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K380" s="1" t="s">
         <v>21</v>
@@ -16810,7 +15950,7 @@
         <v>21</v>
       </c>
       <c r="J381" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K381" s="1" t="s">
         <v>21</v>
@@ -16888,7 +16028,7 @@
         <v>21</v>
       </c>
       <c r="J383" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K383" s="1" t="s">
         <v>21</v>
@@ -16954,7 +16094,7 @@
         <v>21</v>
       </c>
       <c r="J384" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K384" s="1" t="s">
         <v>21</v>
@@ -16981,7 +16121,7 @@
         <v>21</v>
       </c>
       <c r="S384" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="T384" s="1" t="s">
         <v>21</v>
@@ -17020,7 +16160,7 @@
         <v>21</v>
       </c>
       <c r="J385" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K385" s="1" t="s">
         <v>21</v>
@@ -17047,7 +16187,7 @@
         <v>21</v>
       </c>
       <c r="S385" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="T385" s="1" t="s">
         <v>21</v>
@@ -17086,7 +16226,7 @@
         <v>21</v>
       </c>
       <c r="J386" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K386" s="1" t="s">
         <v>21</v>
@@ -17152,7 +16292,7 @@
         <v>21</v>
       </c>
       <c r="J387" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K387" s="1" t="s">
         <v>21</v>
@@ -17179,7 +16319,7 @@
         <v>21</v>
       </c>
       <c r="S387" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="T387" s="1" t="s">
         <v>21</v>
@@ -17218,7 +16358,7 @@
         <v>21</v>
       </c>
       <c r="J388" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K388" s="1" t="s">
         <v>21</v>
@@ -17245,7 +16385,7 @@
         <v>21</v>
       </c>
       <c r="S388" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="T388" s="1" t="s">
         <v>21</v>
@@ -17284,7 +16424,7 @@
         <v>21</v>
       </c>
       <c r="J389" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K389" s="1" t="s">
         <v>21</v>
@@ -17350,7 +16490,7 @@
         <v>21</v>
       </c>
       <c r="J390" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K390" s="1" t="s">
         <v>21</v>
@@ -17377,7 +16517,7 @@
         <v>21</v>
       </c>
       <c r="S390" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="T390" s="1" t="s">
         <v>21</v>
@@ -17416,7 +16556,7 @@
         <v>21</v>
       </c>
       <c r="J391" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K391" s="1" t="s">
         <v>21</v>
@@ -17443,7 +16583,7 @@
         <v>21</v>
       </c>
       <c r="S391" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="T391" s="1" t="s">
         <v>21</v>
@@ -17482,7 +16622,7 @@
         <v>21</v>
       </c>
       <c r="J392" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K392" s="1" t="s">
         <v>21</v>
@@ -17548,7 +16688,7 @@
         <v>21</v>
       </c>
       <c r="J393" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K393" s="1" t="s">
         <v>21</v>
@@ -17575,7 +16715,7 @@
         <v>21</v>
       </c>
       <c r="S393" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="T393" s="1" t="s">
         <v>21</v>
@@ -17614,7 +16754,7 @@
         <v>21</v>
       </c>
       <c r="J394" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K394" s="1" t="s">
         <v>21</v>
@@ -17641,7 +16781,7 @@
         <v>21</v>
       </c>
       <c r="S394" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="T394" s="1" t="s">
         <v>21</v>
@@ -17692,7 +16832,7 @@
         <v>21</v>
       </c>
       <c r="J396" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K396" s="1" t="s">
         <v>21</v>
@@ -17758,7 +16898,7 @@
         <v>21</v>
       </c>
       <c r="J397" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K397" s="1" t="s">
         <v>21</v>
@@ -17785,7 +16925,7 @@
         <v>21</v>
       </c>
       <c r="S397" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="T397" s="1" t="s">
         <v>21</v>
@@ -17842,13 +16982,13 @@
         <v>23</v>
       </c>
       <c r="H400" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I400" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J400" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K400" s="1" t="s">
         <v>21</v>
@@ -17932,13 +17072,13 @@
         <v>23</v>
       </c>
       <c r="H403" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I403" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J403" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K403" s="1" t="s">
         <v>21</v>
@@ -17965,7 +17105,7 @@
         <v>21</v>
       </c>
       <c r="S403" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="T403" s="1" t="s">
         <v>21</v>
@@ -18034,13 +17174,13 @@
         <v>23</v>
       </c>
       <c r="H407" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I407" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J407" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K407" s="1" t="s">
         <v>21</v>
@@ -18067,7 +17207,7 @@
         <v>21</v>
       </c>
       <c r="S407" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T407" s="1" t="s">
         <v>21</v>
@@ -18100,13 +17240,13 @@
         <v>23</v>
       </c>
       <c r="H408" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I408" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J408" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K408" s="1" t="s">
         <v>21</v>
@@ -18194,13 +17334,13 @@
         <v>23</v>
       </c>
       <c r="H411" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I411" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J411" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K411" s="1" t="s">
         <v>21</v>
@@ -18227,7 +17367,7 @@
         <v>21</v>
       </c>
       <c r="S411" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="T411" s="1" t="s">
         <v>21</v>
@@ -18302,13 +17442,13 @@
         <v>23</v>
       </c>
       <c r="H415" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I415" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J415" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K415" s="1" t="s">
         <v>21</v>
@@ -18335,7 +17475,7 @@
         <v>21</v>
       </c>
       <c r="S415" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T415" s="1" t="s">
         <v>21</v>
@@ -19433,7 +18573,7 @@
         <v>21</v>
       </c>
       <c r="S451" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="T451" s="1" t="s">
         <v>21</v>
@@ -19496,7 +18636,7 @@
         <v>21</v>
       </c>
       <c r="S452" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="T452" s="1" t="s">
         <v>21</v>
@@ -19559,7 +18699,7 @@
         <v>21</v>
       </c>
       <c r="S453" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="T453" s="1" t="s">
         <v>21</v>
@@ -19622,7 +18762,7 @@
         <v>21</v>
       </c>
       <c r="S454" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="T454" s="1" t="s">
         <v>21</v>
@@ -19721,7 +18861,7 @@
         <v>21</v>
       </c>
       <c r="S458" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="T458" s="1" t="s">
         <v>21</v>
@@ -19763,7 +18903,7 @@
         <v>21</v>
       </c>
       <c r="L459" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="M459" s="1" t="s">
         <v>21</v>
@@ -19784,7 +18924,7 @@
         <v>21</v>
       </c>
       <c r="S459" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="T459" s="1" t="s">
         <v>21</v>
@@ -19829,7 +18969,7 @@
         <v>21</v>
       </c>
       <c r="M460" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="N460" s="1" t="s">
         <v>21</v>
@@ -19847,7 +18987,7 @@
         <v>21</v>
       </c>
       <c r="S460" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="T460" s="1" t="s">
         <v>21</v>
@@ -19910,7 +19050,7 @@
         <v>21</v>
       </c>
       <c r="S461" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="T461" s="1" t="s">
         <v>21</v>
@@ -19973,7 +19113,7 @@
         <v>21</v>
       </c>
       <c r="S462" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="T462" s="1" t="s">
         <v>21</v>
@@ -20036,7 +19176,7 @@
         <v>21</v>
       </c>
       <c r="S463" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="T463" s="1" t="s">
         <v>21</v>
@@ -20087,7 +19227,7 @@
         <v>21</v>
       </c>
       <c r="K465" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="L465" s="1" t="s">
         <v>21</v>
@@ -20111,7 +19251,7 @@
         <v>21</v>
       </c>
       <c r="S465" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="T465" s="1" t="s">
         <v>21</v>
@@ -20150,7 +19290,7 @@
         <v>21</v>
       </c>
       <c r="K466" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="L466" s="1" t="s">
         <v>21</v>
@@ -20174,7 +19314,7 @@
         <v>21</v>
       </c>
       <c r="S466" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="T466" s="1" t="s">
         <v>21</v>
@@ -20192,7 +19332,7 @@
         <v>491</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E467" s="1" t="s">
         <v>21</v>
@@ -20213,7 +19353,7 @@
         <v>21</v>
       </c>
       <c r="K467" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="L467" s="1" t="s">
         <v>21</v>
@@ -20237,7 +19377,7 @@
         <v>21</v>
       </c>
       <c r="S467" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="T467" s="1" t="s">
         <v>21</v>
@@ -20301,7 +19441,7 @@
         <v>21</v>
       </c>
       <c r="K470" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="L470" s="1" t="s">
         <v>21</v>
@@ -20325,7 +19465,7 @@
         <v>21</v>
       </c>
       <c r="S470" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="T470" s="1" t="s">
         <v>21</v>
@@ -20364,7 +19504,7 @@
         <v>21</v>
       </c>
       <c r="K471" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="L471" s="1" t="s">
         <v>21</v>
@@ -20388,7 +19528,7 @@
         <v>21</v>
       </c>
       <c r="S471" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="T471" s="1" t="s">
         <v>21</v>
@@ -20427,7 +19567,7 @@
         <v>21</v>
       </c>
       <c r="K472" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="L472" s="1" t="s">
         <v>21</v>
@@ -20451,7 +19591,7 @@
         <v>21</v>
       </c>
       <c r="S472" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="T472" s="1" t="s">
         <v>21</v>
@@ -20539,7 +19679,7 @@
         <v>21</v>
       </c>
       <c r="S475" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="T475" s="1" t="s">
         <v>21</v>
@@ -20581,7 +19721,7 @@
         <v>21</v>
       </c>
       <c r="K476" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L476" s="2" t="s">
         <v>21</v>
@@ -20605,7 +19745,7 @@
         <v>21</v>
       </c>
       <c r="S476" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="T476" s="1" t="s">
         <v>21</v>
@@ -20647,7 +19787,7 @@
         <v>21</v>
       </c>
       <c r="K477" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L477" s="2" t="s">
         <v>21</v>
@@ -20671,7 +19811,7 @@
         <v>21</v>
       </c>
       <c r="S477" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="T477" s="1" t="s">
         <v>21</v>
@@ -20710,7 +19850,7 @@
         <v>21</v>
       </c>
       <c r="J478" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K478" s="2" t="s">
         <v>21</v>
@@ -20737,7 +19877,7 @@
         <v>21</v>
       </c>
       <c r="S478" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="T478" s="1" t="s">
         <v>21</v>
@@ -20776,7 +19916,7 @@
         <v>21</v>
       </c>
       <c r="J479" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K479" s="2" t="s">
         <v>21</v>
@@ -20803,7 +19943,7 @@
         <v>21</v>
       </c>
       <c r="S479" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="T479" s="1" t="s">
         <v>21</v>
@@ -20845,7 +19985,7 @@
         <v>21</v>
       </c>
       <c r="K480" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L480" s="2" t="s">
         <v>21</v>
@@ -20869,7 +20009,7 @@
         <v>21</v>
       </c>
       <c r="S480" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="T480" s="1" t="s">
         <v>21</v>
@@ -20911,7 +20051,7 @@
         <v>21</v>
       </c>
       <c r="K481" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L481" s="2" t="s">
         <v>21</v>
@@ -20935,7 +20075,7 @@
         <v>21</v>
       </c>
       <c r="S481" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="T481" s="1" t="s">
         <v>21</v>
@@ -20977,7 +20117,7 @@
         <v>21</v>
       </c>
       <c r="K482" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L482" s="2" t="s">
         <v>21</v>
@@ -21001,7 +20141,7 @@
         <v>21</v>
       </c>
       <c r="S482" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="T482" s="1" t="s">
         <v>21</v>
@@ -21043,7 +20183,7 @@
         <v>21</v>
       </c>
       <c r="K483" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L483" s="2" t="s">
         <v>21</v>
@@ -21067,7 +20207,7 @@
         <v>21</v>
       </c>
       <c r="S483" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="T483" s="1" t="s">
         <v>21</v>
@@ -21109,7 +20249,7 @@
         <v>21</v>
       </c>
       <c r="K484" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L484" s="2" t="s">
         <v>21</v>
@@ -21133,7 +20273,7 @@
         <v>21</v>
       </c>
       <c r="S484" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="T484" s="1" t="s">
         <v>21</v>
@@ -21199,7 +20339,7 @@
         <v>21</v>
       </c>
       <c r="S485" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="T485" s="1" t="s">
         <v>21</v>
@@ -21241,7 +20381,7 @@
         <v>21</v>
       </c>
       <c r="K486" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L486" s="2" t="s">
         <v>21</v>
@@ -21265,7 +20405,7 @@
         <v>21</v>
       </c>
       <c r="S486" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="T486" s="1" t="s">
         <v>21</v>
@@ -21307,7 +20447,7 @@
         <v>21</v>
       </c>
       <c r="K487" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L487" s="2" t="s">
         <v>21</v>
@@ -21331,7 +20471,7 @@
         <v>21</v>
       </c>
       <c r="S487" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="T487" s="1" t="s">
         <v>21</v>
@@ -21370,7 +20510,7 @@
         <v>21</v>
       </c>
       <c r="J488" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K488" s="2" t="s">
         <v>21</v>
@@ -21397,7 +20537,7 @@
         <v>21</v>
       </c>
       <c r="S488" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="T488" s="1" t="s">
         <v>21</v>
@@ -21436,7 +20576,7 @@
         <v>21</v>
       </c>
       <c r="J489" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K489" s="2" t="s">
         <v>21</v>
@@ -21463,7 +20603,7 @@
         <v>21</v>
       </c>
       <c r="S489" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="T489" s="1" t="s">
         <v>21</v>
@@ -21505,7 +20645,7 @@
         <v>21</v>
       </c>
       <c r="K490" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L490" s="2" t="s">
         <v>21</v>
@@ -21529,7 +20669,7 @@
         <v>21</v>
       </c>
       <c r="S490" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="T490" s="1" t="s">
         <v>21</v>
@@ -21571,7 +20711,7 @@
         <v>21</v>
       </c>
       <c r="K491" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L491" s="2" t="s">
         <v>21</v>
@@ -21595,7 +20735,7 @@
         <v>21</v>
       </c>
       <c r="S491" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="T491" s="1" t="s">
         <v>21</v>
@@ -21637,7 +20777,7 @@
         <v>21</v>
       </c>
       <c r="K492" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L492" s="2" t="s">
         <v>21</v>
@@ -21661,7 +20801,7 @@
         <v>21</v>
       </c>
       <c r="S492" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="T492" s="1" t="s">
         <v>21</v>
@@ -21703,7 +20843,7 @@
         <v>21</v>
       </c>
       <c r="K493" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L493" s="2" t="s">
         <v>21</v>
@@ -21727,7 +20867,7 @@
         <v>21</v>
       </c>
       <c r="S493" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="T493" s="1" t="s">
         <v>21</v>
@@ -21769,7 +20909,7 @@
         <v>21</v>
       </c>
       <c r="K494" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L494" s="2" t="s">
         <v>21</v>
@@ -21793,7 +20933,7 @@
         <v>21</v>
       </c>
       <c r="S494" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="T494" s="1" t="s">
         <v>21</v>
@@ -21859,7 +20999,7 @@
         <v>21</v>
       </c>
       <c r="S495" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="T495" s="1" t="s">
         <v>21</v>
@@ -21901,7 +21041,7 @@
         <v>21</v>
       </c>
       <c r="K496" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L496" s="2" t="s">
         <v>21</v>
@@ -21925,7 +21065,7 @@
         <v>21</v>
       </c>
       <c r="S496" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="T496" s="1" t="s">
         <v>21</v>
@@ -21967,7 +21107,7 @@
         <v>21</v>
       </c>
       <c r="K497" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L497" s="2" t="s">
         <v>21</v>
@@ -21991,7 +21131,7 @@
         <v>21</v>
       </c>
       <c r="S497" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="T497" s="1" t="s">
         <v>21</v>
@@ -22030,7 +21170,7 @@
         <v>21</v>
       </c>
       <c r="J498" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K498" s="2" t="s">
         <v>21</v>
@@ -22057,7 +21197,7 @@
         <v>21</v>
       </c>
       <c r="S498" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="T498" s="1" t="s">
         <v>21</v>
@@ -22096,7 +21236,7 @@
         <v>21</v>
       </c>
       <c r="J499" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K499" s="2" t="s">
         <v>21</v>
@@ -22123,7 +21263,7 @@
         <v>21</v>
       </c>
       <c r="S499" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="T499" s="1" t="s">
         <v>21</v>
@@ -22165,7 +21305,7 @@
         <v>21</v>
       </c>
       <c r="K500" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L500" s="2" t="s">
         <v>21</v>
@@ -22189,7 +21329,7 @@
         <v>21</v>
       </c>
       <c r="S500" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="T500" s="1" t="s">
         <v>21</v>
@@ -22231,7 +21371,7 @@
         <v>21</v>
       </c>
       <c r="K501" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L501" s="2" t="s">
         <v>21</v>
@@ -22255,7 +21395,7 @@
         <v>21</v>
       </c>
       <c r="S501" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="T501" s="1" t="s">
         <v>21</v>
@@ -22297,7 +21437,7 @@
         <v>21</v>
       </c>
       <c r="K502" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L502" s="2" t="s">
         <v>21</v>
@@ -22321,7 +21461,7 @@
         <v>21</v>
       </c>
       <c r="S502" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="T502" s="1" t="s">
         <v>21</v>
@@ -22363,7 +21503,7 @@
         <v>21</v>
       </c>
       <c r="K503" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L503" s="2" t="s">
         <v>21</v>
@@ -22387,7 +21527,7 @@
         <v>21</v>
       </c>
       <c r="S503" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="T503" s="1" t="s">
         <v>21</v>
@@ -22429,7 +21569,7 @@
         <v>21</v>
       </c>
       <c r="K504" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L504" s="2" t="s">
         <v>21</v>
@@ -22453,7 +21593,7 @@
         <v>21</v>
       </c>
       <c r="S504" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="T504" s="1" t="s">
         <v>21</v>
@@ -22519,7 +21659,7 @@
         <v>21</v>
       </c>
       <c r="S505" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="T505" s="1" t="s">
         <v>21</v>
@@ -22561,7 +21701,7 @@
         <v>21</v>
       </c>
       <c r="K506" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L506" s="2" t="s">
         <v>21</v>
@@ -22585,7 +21725,7 @@
         <v>21</v>
       </c>
       <c r="S506" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="T506" s="1" t="s">
         <v>21</v>
@@ -22627,7 +21767,7 @@
         <v>21</v>
       </c>
       <c r="K507" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L507" s="2" t="s">
         <v>21</v>
@@ -22651,7 +21791,7 @@
         <v>21</v>
       </c>
       <c r="S507" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="T507" s="1" t="s">
         <v>21</v>
@@ -22690,7 +21830,7 @@
         <v>21</v>
       </c>
       <c r="J508" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K508" s="2" t="s">
         <v>21</v>
@@ -22717,7 +21857,7 @@
         <v>21</v>
       </c>
       <c r="S508" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="T508" s="1" t="s">
         <v>21</v>
@@ -22756,7 +21896,7 @@
         <v>21</v>
       </c>
       <c r="J509" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K509" s="2" t="s">
         <v>21</v>
@@ -22783,7 +21923,7 @@
         <v>21</v>
       </c>
       <c r="S509" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="T509" s="1" t="s">
         <v>21</v>
@@ -22825,7 +21965,7 @@
         <v>21</v>
       </c>
       <c r="K510" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L510" s="2" t="s">
         <v>21</v>
@@ -22849,7 +21989,7 @@
         <v>21</v>
       </c>
       <c r="S510" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="T510" s="1" t="s">
         <v>21</v>
@@ -22891,7 +22031,7 @@
         <v>21</v>
       </c>
       <c r="K511" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L511" s="2" t="s">
         <v>21</v>
@@ -22915,7 +22055,7 @@
         <v>21</v>
       </c>
       <c r="S511" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="T511" s="1" t="s">
         <v>21</v>
@@ -22957,7 +22097,7 @@
         <v>21</v>
       </c>
       <c r="K512" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L512" s="2" t="s">
         <v>21</v>
@@ -22981,7 +22121,7 @@
         <v>21</v>
       </c>
       <c r="S512" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="T512" s="1" t="s">
         <v>21</v>
@@ -23023,7 +22163,7 @@
         <v>21</v>
       </c>
       <c r="K513" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L513" s="2" t="s">
         <v>21</v>
@@ -23047,7 +22187,7 @@
         <v>21</v>
       </c>
       <c r="S513" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="T513" s="1" t="s">
         <v>21</v>
@@ -23089,7 +22229,7 @@
         <v>21</v>
       </c>
       <c r="K514" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L514" s="2" t="s">
         <v>21</v>
@@ -23113,7 +22253,7 @@
         <v>21</v>
       </c>
       <c r="S514" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="T514" s="1" t="s">
         <v>21</v>

--- a/input/FilterScripts/other energy filter.xlsx
+++ b/input/FilterScripts/other energy filter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TemplateAutomaterV2\DDPTemplateAutomationV2\input\FilterScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963D54D8-FF32-424C-A111-AEFFB7027E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FF579C-CC01-4459-9C9A-7D38330F34A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="705" xr2:uid="{93072CBE-95F2-4983-8E5A-0DD653CBAE35}"/>
+    <workbookView xWindow="38280" yWindow="8415" windowWidth="29040" windowHeight="15840" tabRatio="705" xr2:uid="{93072CBE-95F2-4983-8E5A-0DD653CBAE35}"/>
   </bookViews>
   <sheets>
     <sheet name="OTHER ENERGY SUPPLY (STL)_REF" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4814" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4765" uniqueCount="132">
   <si>
     <t>WorkbookID</t>
   </si>
@@ -161,9 +161,6 @@
     <t>1A Fuel Combustion Activities</t>
   </si>
   <si>
-    <t xml:space="preserve">['Aviation Gasoline', 'Biogas', 'Biowood', 'Coal', 'Electricity', 'Gas', 'Gasoline', 'HFO', 'Hydrogen', 'Kerosene', 'LPG'] </t>
-  </si>
-  <si>
     <t>['Gas', 'Crude Oil']</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
   </si>
   <si>
     <t>CO2CAPT</t>
-  </si>
-  <si>
-    <t>['Electricity', 'Gas']</t>
   </si>
   <si>
     <t>Other</t>
@@ -239,9 +233,6 @@
     <t>['Electricity']</t>
   </si>
   <si>
-    <t>['Electricity', 'Hydrogen']</t>
-  </si>
-  <si>
     <t>['Hydrogen']</t>
   </si>
   <si>
@@ -255,9 +246,6 @@
   </si>
   <si>
     <t>GIM</t>
-  </si>
-  <si>
-    <t>['Electricity', 'Biomass', 'Hydrogen']</t>
   </si>
   <si>
     <t>['CH4', 'Gas']</t>
@@ -418,13 +406,41 @@
   <si>
     <t>Capacity</t>
   </si>
+  <si>
+    <t>H2_Nm</t>
+  </si>
+  <si>
+    <t>1B2 Oil and Natural Gas</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>['Coal','Gas']</t>
+  </si>
+  <si>
+    <t>ICPGASMTH</t>
+  </si>
+  <si>
+    <t>ICPHGNMTH</t>
+  </si>
+  <si>
+    <t>MTH</t>
+  </si>
+  <si>
+    <t>['ICPGASMTH','ICPHGNMTH','UFTHGNCO2-N']</t>
+  </si>
+  <si>
+    <t>Hydrogen-Elc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -523,7 +539,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -552,8 +568,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -565,13 +584,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="28">
     <cellStyle name="Comma 2" xfId="8" xr:uid="{9D26DE53-E382-4AEF-9EF0-EC9F3A31ED40}"/>
     <cellStyle name="Comma 2 2" xfId="16" xr:uid="{024C5924-AC26-4548-9209-E08D4AB7B61F}"/>
+    <cellStyle name="Comma 2 2 2" xfId="26" xr:uid="{7B248E41-FC6C-424A-9061-1021993BA740}"/>
     <cellStyle name="Comma 2 3" xfId="7" xr:uid="{010F3BE9-E85C-4067-9CAB-15D25475649E}"/>
+    <cellStyle name="Comma 2 4" xfId="25" xr:uid="{F40F8A3E-DC6C-4916-A5C1-42020C986306}"/>
     <cellStyle name="Comma 3" xfId="17" xr:uid="{7AA572E9-E02E-4B13-85B2-02E63AF365A2}"/>
     <cellStyle name="Comma 4" xfId="20" xr:uid="{FBB8406C-0F7A-4BAC-969A-17D42B17367E}"/>
+    <cellStyle name="Comma 5" xfId="27" xr:uid="{AB743CA1-39D0-4F48-A9B5-0CE3D6ED0F1A}"/>
     <cellStyle name="Explanatory Text 2" xfId="24" xr:uid="{255317E9-53D5-45C8-A3D7-0E8E89DC1902}"/>
     <cellStyle name="Heading 4 2" xfId="23" xr:uid="{7338859F-5285-4533-B9A6-DF62672C9045}"/>
     <cellStyle name="Hyperlink 2" xfId="12" xr:uid="{1748CF06-0D7B-424E-A5C7-C691779F0FC7}"/>
@@ -934,18 +958,18 @@
   <dimension ref="A1:U527"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E264" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E272" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="F269" sqref="F269"/>
+      <selection pane="bottomRight" activeCell="J281" sqref="J281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="3.85546875" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="29.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
@@ -956,7 +980,7 @@
     <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="7.140625" customWidth="1"/>
     <col min="15" max="15" width="33.140625" customWidth="1"/>
-    <col min="19" max="19" width="56.85546875" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
     <col min="21" max="21" width="17.7109375" customWidth="1"/>
   </cols>
@@ -1076,7 +1100,7 @@
         <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>21</v>
@@ -1106,7 +1130,7 @@
         <v>21</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1133,7 +1157,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>21</v>
@@ -1205,7 +1229,7 @@
         <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>21</v>
@@ -1238,7 +1262,7 @@
         <v>21</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1292,7 +1316,7 @@
         <v>21</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>21</v>
@@ -1355,7 +1379,7 @@
         <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>21</v>
@@ -1421,7 +1445,7 @@
         <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>21</v>
@@ -1962,7 +1986,7 @@
         <v>21</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>21</v>
@@ -2028,7 +2052,7 @@
         <v>21</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>21</v>
@@ -2094,7 +2118,7 @@
         <v>21</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>21</v>
@@ -2160,7 +2184,7 @@
         <v>21</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>21</v>
@@ -2205,7 +2229,7 @@
         <v>23</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>21</v>
@@ -2226,7 +2250,7 @@
         <v>21</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>21</v>
@@ -2271,7 +2295,7 @@
         <v>23</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>21</v>
@@ -2292,7 +2316,7 @@
         <v>21</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>21</v>
@@ -2337,7 +2361,7 @@
         <v>23</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>21</v>
@@ -2358,7 +2382,7 @@
         <v>21</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>21</v>
@@ -2403,7 +2427,7 @@
         <v>23</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>21</v>
@@ -2424,7 +2448,7 @@
         <v>21</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>21</v>
@@ -2487,7 +2511,7 @@
         <v>23</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>21</v>
@@ -2553,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>21</v>
@@ -2586,7 +2610,7 @@
         <v>21</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T45" s="1" t="s">
         <v>21</v>
@@ -2619,7 +2643,7 @@
         <v>23</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>21</v>
@@ -2972,13 +2996,60 @@
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="U62" s="2"/>
+      <c r="D62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U62" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="63" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -3010,13 +3081,60 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="U64" s="2"/>
+      <c r="D64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="65" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -3029,13 +3147,60 @@
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="U65" s="2"/>
+      <c r="D65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U65" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="66" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
@@ -3067,13 +3232,60 @@
         <f t="shared" ref="C67:C130" si="1">C66+1</f>
         <v>91</v>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="U67" s="2"/>
+      <c r="D67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="68" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
@@ -3125,7 +3337,7 @@
         <v>23</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>21</v>
@@ -3239,7 +3451,7 @@
         <v>23</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>21</v>
@@ -3426,7 +3638,7 @@
         <v>21</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3647,7 +3859,7 @@
         <v>21</v>
       </c>
       <c r="U90" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3703,7 +3915,7 @@
         <v>21</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>21</v>
@@ -3733,7 +3945,7 @@
         <v>21</v>
       </c>
       <c r="U92" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3849,7 +4061,7 @@
         <v>21</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>21</v>
@@ -3879,7 +4091,7 @@
         <v>21</v>
       </c>
       <c r="U97" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3932,7 +4144,7 @@
         <v>21</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>21</v>
@@ -3962,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="U99" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3998,7 +4210,7 @@
         <v>21</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>21</v>
@@ -4028,7 +4240,7 @@
         <v>21</v>
       </c>
       <c r="U100" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4064,7 +4276,7 @@
         <v>21</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>21</v>
@@ -4130,7 +4342,7 @@
         <v>21</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>21</v>
@@ -4213,7 +4425,7 @@
         <v>21</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>21</v>
@@ -4279,7 +4491,7 @@
         <v>21</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L105" s="2" t="s">
         <v>21</v>
@@ -4345,7 +4557,7 @@
         <v>21</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>21</v>
@@ -4411,7 +4623,7 @@
         <v>21</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>21</v>
@@ -4489,7 +4701,7 @@
         <v>21</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>21</v>
@@ -4555,7 +4767,7 @@
         <v>21</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>21</v>
@@ -4579,7 +4791,7 @@
         <v>21</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="T110" s="1" t="s">
         <v>21</v>
@@ -4621,7 +4833,7 @@
         <v>21</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>21</v>
@@ -4645,7 +4857,7 @@
         <v>21</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="T111" s="1" t="s">
         <v>21</v>
@@ -4684,7 +4896,7 @@
         <v>21</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>21</v>
@@ -4711,7 +4923,7 @@
         <v>21</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="T112" s="1" t="s">
         <v>21</v>
@@ -4750,7 +4962,7 @@
         <v>21</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>21</v>
@@ -4777,7 +4989,7 @@
         <v>21</v>
       </c>
       <c r="S113" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="T113" s="1" t="s">
         <v>21</v>
@@ -4819,7 +5031,7 @@
         <v>21</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>21</v>
@@ -4843,7 +5055,7 @@
         <v>21</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="T114" s="1" t="s">
         <v>21</v>
@@ -4885,7 +5097,7 @@
         <v>21</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L115" s="2" t="s">
         <v>21</v>
@@ -4909,7 +5121,7 @@
         <v>21</v>
       </c>
       <c r="S115" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="T115" s="1" t="s">
         <v>21</v>
@@ -4951,7 +5163,7 @@
         <v>21</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>21</v>
@@ -4975,7 +5187,7 @@
         <v>21</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="T116" s="1" t="s">
         <v>21</v>
@@ -5017,7 +5229,7 @@
         <v>21</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L117" s="2" t="s">
         <v>21</v>
@@ -5041,7 +5253,7 @@
         <v>21</v>
       </c>
       <c r="S117" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="T117" s="1" t="s">
         <v>21</v>
@@ -5106,7 +5318,7 @@
         <v>21</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L119" s="2" t="s">
         <v>21</v>
@@ -5172,7 +5384,7 @@
         <v>21</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>21</v>
@@ -5238,7 +5450,7 @@
         <v>21</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>21</v>
@@ -5301,7 +5513,7 @@
         <v>21</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>21</v>
@@ -5367,7 +5579,7 @@
         <v>21</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>21</v>
@@ -5436,7 +5648,7 @@
         <v>21</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>21</v>
@@ -5502,7 +5714,7 @@
         <v>21</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>21</v>
@@ -5568,7 +5780,7 @@
         <v>21</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>21</v>
@@ -5631,7 +5843,7 @@
         <v>21</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>21</v>
@@ -5700,7 +5912,7 @@
         <v>21</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>21</v>
@@ -5763,7 +5975,7 @@
         <v>21</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>21</v>
@@ -5832,7 +6044,7 @@
         <v>21</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>21</v>
@@ -5898,7 +6110,7 @@
         <v>21</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>21</v>
@@ -5961,7 +6173,7 @@
         <v>21</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>21</v>
@@ -6027,7 +6239,7 @@
         <v>21</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>21</v>
@@ -6096,7 +6308,7 @@
         <v>21</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L134" s="2" t="s">
         <v>21</v>
@@ -6162,7 +6374,7 @@
         <v>21</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>21</v>
@@ -6228,7 +6440,7 @@
         <v>21</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>21</v>
@@ -6291,7 +6503,7 @@
         <v>21</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K137" s="2" t="s">
         <v>21</v>
@@ -6360,7 +6572,7 @@
         <v>21</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L138" s="2" t="s">
         <v>21</v>
@@ -6426,7 +6638,7 @@
         <v>21</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>21</v>
@@ -6450,7 +6662,7 @@
         <v>21</v>
       </c>
       <c r="S139" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="T139" s="1" t="s">
         <v>21</v>
@@ -6492,7 +6704,7 @@
         <v>21</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>21</v>
@@ -6516,7 +6728,7 @@
         <v>21</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="T140" s="1" t="s">
         <v>21</v>
@@ -6558,7 +6770,7 @@
         <v>21</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L141" s="2" t="s">
         <v>21</v>
@@ -6582,7 +6794,7 @@
         <v>21</v>
       </c>
       <c r="S141" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="T141" s="1" t="s">
         <v>21</v>
@@ -6621,7 +6833,7 @@
         <v>21</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>21</v>
@@ -6648,7 +6860,7 @@
         <v>21</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="T142" s="1" t="s">
         <v>21</v>
@@ -6687,7 +6899,7 @@
         <v>21</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K143" s="2" t="s">
         <v>21</v>
@@ -6714,7 +6926,7 @@
         <v>21</v>
       </c>
       <c r="S143" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="T143" s="1" t="s">
         <v>21</v>
@@ -6756,7 +6968,7 @@
         <v>21</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L144" s="2" t="s">
         <v>21</v>
@@ -6780,7 +6992,7 @@
         <v>21</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="T144" s="1" t="s">
         <v>21</v>
@@ -6822,7 +7034,7 @@
         <v>21</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L145" s="2" t="s">
         <v>21</v>
@@ -6846,7 +7058,7 @@
         <v>21</v>
       </c>
       <c r="S145" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="T145" s="1" t="s">
         <v>21</v>
@@ -6885,7 +7097,7 @@
         <v>21</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K146" s="2" t="s">
         <v>21</v>
@@ -6912,7 +7124,7 @@
         <v>21</v>
       </c>
       <c r="S146" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="T146" s="1" t="s">
         <v>21</v>
@@ -6954,7 +7166,7 @@
         <v>21</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>21</v>
@@ -6978,7 +7190,7 @@
         <v>21</v>
       </c>
       <c r="S147" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="T147" s="1" t="s">
         <v>21</v>
@@ -7020,7 +7232,7 @@
         <v>21</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L148" s="2" t="s">
         <v>21</v>
@@ -7044,7 +7256,7 @@
         <v>21</v>
       </c>
       <c r="S148" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="T148" s="1" t="s">
         <v>21</v>
@@ -7154,7 +7366,7 @@
         <v>21</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L153" s="2" t="s">
         <v>21</v>
@@ -7178,7 +7390,7 @@
         <v>21</v>
       </c>
       <c r="S153" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="T153" s="1" t="s">
         <v>21</v>
@@ -7220,7 +7432,7 @@
         <v>21</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L154" s="2" t="s">
         <v>21</v>
@@ -7244,7 +7456,7 @@
         <v>21</v>
       </c>
       <c r="S154" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T154" s="1" t="s">
         <v>21</v>
@@ -7286,7 +7498,7 @@
         <v>21</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>21</v>
@@ -7310,7 +7522,7 @@
         <v>21</v>
       </c>
       <c r="S155" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="T155" s="1" t="s">
         <v>21</v>
@@ -7352,7 +7564,7 @@
         <v>21</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L156" s="2" t="s">
         <v>21</v>
@@ -7376,7 +7588,7 @@
         <v>21</v>
       </c>
       <c r="S156" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="T156" s="1" t="s">
         <v>21</v>
@@ -7418,31 +7630,31 @@
         <v>21</v>
       </c>
       <c r="K157" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S157" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="L157" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M157" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N157" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O157" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P157" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q157" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R157" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S157" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="T157" s="1" t="s">
         <v>21</v>
@@ -7484,7 +7696,7 @@
         <v>21</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L158" s="2" t="s">
         <v>21</v>
@@ -7508,7 +7720,7 @@
         <v>21</v>
       </c>
       <c r="S158" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="T158" s="1" t="s">
         <v>21</v>
@@ -7550,7 +7762,7 @@
         <v>21</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L159" s="2" t="s">
         <v>21</v>
@@ -7574,7 +7786,7 @@
         <v>21</v>
       </c>
       <c r="S159" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="T159" s="1" t="s">
         <v>21</v>
@@ -7616,7 +7828,7 @@
         <v>21</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L160" s="2" t="s">
         <v>21</v>
@@ -7640,7 +7852,7 @@
         <v>21</v>
       </c>
       <c r="S160" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="T160" s="1" t="s">
         <v>21</v>
@@ -7682,7 +7894,7 @@
         <v>21</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L161" s="2" t="s">
         <v>21</v>
@@ -7706,7 +7918,7 @@
         <v>21</v>
       </c>
       <c r="S161" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="T161" s="1" t="s">
         <v>21</v>
@@ -7748,7 +7960,7 @@
         <v>21</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L162" s="2" t="s">
         <v>21</v>
@@ -7772,7 +7984,7 @@
         <v>21</v>
       </c>
       <c r="S162" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="T162" s="1" t="s">
         <v>21</v>
@@ -7814,7 +8026,7 @@
         <v>21</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L163" s="2" t="s">
         <v>21</v>
@@ -7838,7 +8050,7 @@
         <v>21</v>
       </c>
       <c r="S163" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="T163" s="1" t="s">
         <v>21</v>
@@ -7880,7 +8092,7 @@
         <v>21</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L164" s="2" t="s">
         <v>21</v>
@@ -7904,7 +8116,7 @@
         <v>21</v>
       </c>
       <c r="S164" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="T164" s="1" t="s">
         <v>21</v>
@@ -7946,10 +8158,10 @@
         <v>21</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M165" s="1" t="s">
         <v>21</v>
@@ -8012,10 +8224,10 @@
         <v>21</v>
       </c>
       <c r="K166" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L166" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="L166" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="M166" s="1" t="s">
         <v>21</v>
@@ -8078,10 +8290,10 @@
         <v>21</v>
       </c>
       <c r="K167" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L167" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="L167" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="M167" s="1" t="s">
         <v>21</v>
@@ -8204,7 +8416,7 @@
         <v>21</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L170" s="2" t="s">
         <v>21</v>
@@ -8249,7 +8461,7 @@
         <v>195</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>21</v>
@@ -8315,10 +8527,10 @@
         <v>196</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>22</v>
@@ -8381,10 +8593,10 @@
         <v>197</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>22</v>
@@ -8508,7 +8720,7 @@
         <v>21</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K176" s="2" t="s">
         <v>21</v>
@@ -8535,7 +8747,7 @@
         <v>21</v>
       </c>
       <c r="S176" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="T176" s="1" t="s">
         <v>21</v>
@@ -8577,7 +8789,7 @@
         <v>21</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L177" s="2" t="s">
         <v>21</v>
@@ -8601,7 +8813,7 @@
         <v>21</v>
       </c>
       <c r="S177" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="T177" s="1" t="s">
         <v>21</v>
@@ -8643,7 +8855,7 @@
         <v>21</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L178" s="2" t="s">
         <v>21</v>
@@ -8667,7 +8879,7 @@
         <v>21</v>
       </c>
       <c r="S178" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="T178" s="1" t="s">
         <v>21</v>
@@ -8709,7 +8921,7 @@
         <v>21</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L179" s="2" t="s">
         <v>21</v>
@@ -8733,7 +8945,7 @@
         <v>21</v>
       </c>
       <c r="S179" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="T179" s="1" t="s">
         <v>21</v>
@@ -8753,60 +8965,21 @@
         <f t="shared" si="2"/>
         <v>204</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H180" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I180" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J180" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K180" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L180" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M180" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N180" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O180" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P180" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q180" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R180" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S180" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T180" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U180" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+      <c r="L180" s="2"/>
+      <c r="M180" s="2"/>
+      <c r="N180" s="2"/>
+      <c r="O180" s="2"/>
+      <c r="P180" s="2"/>
+      <c r="Q180" s="2"/>
+      <c r="R180" s="2"/>
+      <c r="S180" s="2"/>
+      <c r="T180" s="2"/>
+      <c r="U180" s="2"/>
     </row>
     <row r="181" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
@@ -8955,7 +9128,7 @@
         <v>21</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>21</v>
@@ -8973,7 +9146,7 @@
         <v>21</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L183" s="1" t="s">
         <v>21</v>
@@ -9185,7 +9358,7 @@
         <v>21</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K187" s="2" t="s">
         <v>21</v>
@@ -9254,7 +9427,7 @@
         <v>21</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L188" s="2" t="s">
         <v>21</v>
@@ -9320,7 +9493,7 @@
         <v>21</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L189" s="2" t="s">
         <v>21</v>
@@ -9386,7 +9559,7 @@
         <v>21</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L190" s="2" t="s">
         <v>21</v>
@@ -9462,13 +9635,13 @@
         <v>23</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I192" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K192" s="2" t="s">
         <v>21</v>
@@ -9528,7 +9701,7 @@
         <v>23</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>21</v>
@@ -9537,7 +9710,7 @@
         <v>21</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L193" s="2" t="s">
         <v>21</v>
@@ -9594,7 +9767,7 @@
         <v>23</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I194" s="1" t="s">
         <v>21</v>
@@ -9603,7 +9776,7 @@
         <v>21</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L194" s="2" t="s">
         <v>21</v>
@@ -9660,7 +9833,7 @@
         <v>23</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I195" s="1" t="s">
         <v>21</v>
@@ -9669,7 +9842,7 @@
         <v>21</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L195" s="2" t="s">
         <v>21</v>
@@ -9751,7 +9924,7 @@
         <v>21</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K197" s="2" t="s">
         <v>21</v>
@@ -9766,7 +9939,7 @@
         <v>21</v>
       </c>
       <c r="O197" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P197" s="1" t="s">
         <v>21</v>
@@ -9820,7 +9993,7 @@
         <v>21</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L198" s="2" t="s">
         <v>21</v>
@@ -9832,7 +10005,7 @@
         <v>21</v>
       </c>
       <c r="O198" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P198" s="1" t="s">
         <v>21</v>
@@ -9886,7 +10059,7 @@
         <v>21</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L199" s="2" t="s">
         <v>21</v>
@@ -9898,7 +10071,7 @@
         <v>21</v>
       </c>
       <c r="O199" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P199" s="1" t="s">
         <v>21</v>
@@ -9952,7 +10125,7 @@
         <v>21</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L200" s="2" t="s">
         <v>21</v>
@@ -9964,7 +10137,7 @@
         <v>21</v>
       </c>
       <c r="O200" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P200" s="1" t="s">
         <v>21</v>
@@ -10028,13 +10201,13 @@
         <v>23</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I202" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K202" s="2" t="s">
         <v>21</v>
@@ -10049,7 +10222,7 @@
         <v>21</v>
       </c>
       <c r="O202" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P202" s="1" t="s">
         <v>21</v>
@@ -10094,7 +10267,7 @@
         <v>23</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I203" s="1" t="s">
         <v>21</v>
@@ -10103,7 +10276,7 @@
         <v>21</v>
       </c>
       <c r="K203" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L203" s="2" t="s">
         <v>21</v>
@@ -10115,7 +10288,7 @@
         <v>21</v>
       </c>
       <c r="O203" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P203" s="1" t="s">
         <v>21</v>
@@ -10160,7 +10333,7 @@
         <v>23</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I204" s="1" t="s">
         <v>21</v>
@@ -10169,7 +10342,7 @@
         <v>21</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L204" s="2" t="s">
         <v>21</v>
@@ -10181,7 +10354,7 @@
         <v>21</v>
       </c>
       <c r="O204" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P204" s="1" t="s">
         <v>21</v>
@@ -10226,7 +10399,7 @@
         <v>23</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I205" s="1" t="s">
         <v>21</v>
@@ -10235,7 +10408,7 @@
         <v>21</v>
       </c>
       <c r="K205" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L205" s="2" t="s">
         <v>21</v>
@@ -10247,7 +10420,7 @@
         <v>21</v>
       </c>
       <c r="O205" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P205" s="1" t="s">
         <v>21</v>
@@ -10279,60 +10452,13 @@
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H206" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I206" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J206" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K206" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L206" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M206" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O206" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P206" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q206" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R206" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S206" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T206" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U206" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="K206" s="2"/>
+      <c r="L206" s="2"/>
+      <c r="O206" s="2"/>
+      <c r="S206" s="2"/>
+      <c r="U206" s="2"/>
     </row>
     <row r="207" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
@@ -10370,10 +10496,10 @@
         <v>23</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K208" s="2" t="s">
         <v>21</v>
@@ -10433,13 +10559,13 @@
         <v>23</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K209" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L209" s="2" t="s">
         <v>21</v>
@@ -10654,7 +10780,7 @@
         <v>21</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K218" s="1" t="s">
         <v>21</v>
@@ -10687,7 +10813,7 @@
         <v>21</v>
       </c>
       <c r="U218" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
@@ -10720,7 +10846,7 @@
         <v>21</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K219" s="1" t="s">
         <v>21</v>
@@ -10814,7 +10940,7 @@
         <v>23</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I222" s="1" t="s">
         <v>21</v>
@@ -10823,7 +10949,7 @@
         <v>21</v>
       </c>
       <c r="K222" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L222" s="1" t="s">
         <v>21</v>
@@ -10986,7 +11112,7 @@
         <v>21</v>
       </c>
       <c r="K229" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L229" s="2" t="s">
         <v>21</v>
@@ -11010,7 +11136,7 @@
         <v>21</v>
       </c>
       <c r="S229" s="1" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="T229" s="1" t="s">
         <v>21</v>
@@ -11052,7 +11178,7 @@
         <v>21</v>
       </c>
       <c r="K230" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L230" s="2" t="s">
         <v>21</v>
@@ -11118,7 +11244,7 @@
         <v>21</v>
       </c>
       <c r="K231" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L231" s="2" t="s">
         <v>21</v>
@@ -11204,7 +11330,7 @@
         <v>23</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I234" s="1" t="s">
         <v>21</v>
@@ -11213,7 +11339,7 @@
         <v>21</v>
       </c>
       <c r="K234" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L234" s="2" t="s">
         <v>21</v>
@@ -11237,7 +11363,7 @@
         <v>21</v>
       </c>
       <c r="S234" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="T234" s="1" t="s">
         <v>21</v>
@@ -11384,7 +11510,7 @@
         <v>21</v>
       </c>
       <c r="K243" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L243" s="2" t="s">
         <v>21</v>
@@ -11579,7 +11705,7 @@
         <v>280</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>21</v>
@@ -11591,7 +11717,7 @@
         <v>23</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>21</v>
@@ -11606,7 +11732,7 @@
         <v>21</v>
       </c>
       <c r="M256" s="2" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="N256" s="1" t="s">
         <v>21</v>
@@ -11624,13 +11750,13 @@
         <v>21</v>
       </c>
       <c r="S256" s="2" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="T256" s="1" t="s">
         <v>21</v>
       </c>
       <c r="U256" s="1" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="257" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11645,7 +11771,7 @@
         <v>281</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>21</v>
@@ -11657,7 +11783,7 @@
         <v>23</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>21</v>
@@ -11672,7 +11798,7 @@
         <v>21</v>
       </c>
       <c r="M257" s="2" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="N257" s="1" t="s">
         <v>21</v>
@@ -11690,13 +11816,13 @@
         <v>21</v>
       </c>
       <c r="S257" s="2" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="T257" s="1" t="s">
         <v>21</v>
       </c>
       <c r="U257" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="258" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11789,24 +11915,60 @@
         <f t="shared" si="4"/>
         <v>288</v>
       </c>
-      <c r="D264" s="1"/>
-      <c r="E264" s="1"/>
-      <c r="F264" s="1"/>
-      <c r="G264" s="1"/>
-      <c r="H264" s="1"/>
-      <c r="I264" s="1"/>
-      <c r="J264" s="1"/>
-      <c r="K264" s="1"/>
-      <c r="L264" s="1"/>
-      <c r="M264" s="1"/>
-      <c r="N264" s="1"/>
-      <c r="O264" s="1"/>
-      <c r="P264" s="1"/>
-      <c r="Q264" s="1"/>
-      <c r="R264" s="1"/>
-      <c r="S264" s="1"/>
-      <c r="T264" s="1"/>
-      <c r="U264" s="2"/>
+      <c r="D264" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L264" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M264" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N264" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O264" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P264" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q264" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R264" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S264" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T264" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U264" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="265" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
@@ -11819,7 +11981,60 @@
         <f t="shared" si="4"/>
         <v>289</v>
       </c>
-      <c r="U265" s="2"/>
+      <c r="D265" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L265" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M265" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N265" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O265" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P265" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q265" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R265" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S265" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T265" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U265" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="266" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
@@ -11897,7 +12112,60 @@
         <f t="shared" si="4"/>
         <v>295</v>
       </c>
-      <c r="U271" s="2"/>
+      <c r="D271" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K271" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L271" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M271" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N271" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O271" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P271" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q271" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R271" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S271" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T271" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U271" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="272" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
@@ -11910,7 +12178,36 @@
         <f t="shared" si="4"/>
         <v>296</v>
       </c>
-      <c r="U272" s="2"/>
+      <c r="L272" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M272" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N272" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O272" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P272" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q272" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R272" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S272" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T272" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U272" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="273" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
@@ -11923,7 +12220,30 @@
         <f t="shared" si="4"/>
         <v>297</v>
       </c>
-      <c r="H273" s="2"/>
+      <c r="D273" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K273" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="S273" s="2"/>
       <c r="U273" s="2"/>
     </row>
@@ -11950,60 +12270,6 @@
         <f t="shared" si="4"/>
         <v>299</v>
       </c>
-      <c r="D275" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F275" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G275" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H275" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I275" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J275" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K275" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L275" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M275" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N275" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O275" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P275" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q275" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R275" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S275" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T275" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U275" s="2" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="276" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
@@ -12016,60 +12282,9 @@
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="D276" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F276" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G276" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H276" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I276" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J276" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K276" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L276" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M276" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N276" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O276" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P276" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q276" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R276" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S276" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T276" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U276" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="E276" s="2"/>
+      <c r="H276" s="2"/>
+      <c r="U276" s="2"/>
     </row>
     <row r="277" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
@@ -12082,60 +12297,9 @@
         <f t="shared" si="4"/>
         <v>301</v>
       </c>
-      <c r="D277" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F277" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G277" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H277" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I277" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J277" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K277" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L277" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M277" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N277" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O277" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P277" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q277" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R277" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S277" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T277" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U277" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="E277" s="2"/>
+      <c r="H277" s="2"/>
+      <c r="U277" s="2"/>
     </row>
     <row r="278" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
@@ -12149,10 +12313,10 @@
         <v>302</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>22</v>
@@ -12167,7 +12331,7 @@
         <v>21</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="K278" s="1" t="s">
         <v>21</v>
@@ -12175,8 +12339,8 @@
       <c r="L278" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M278" s="2" t="s">
-        <v>70</v>
+      <c r="M278" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="N278" s="1" t="s">
         <v>21</v>
@@ -12193,8 +12357,8 @@
       <c r="R278" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S278" s="1" t="s">
-        <v>67</v>
+      <c r="S278" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="T278" s="1" t="s">
         <v>21</v>
@@ -12218,7 +12382,7 @@
         <v>21</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>22</v>
@@ -12233,10 +12397,10 @@
         <v>21</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="L279" s="1" t="s">
         <v>21</v>
@@ -12259,8 +12423,8 @@
       <c r="R279" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S279" s="1" t="s">
-        <v>67</v>
+      <c r="S279" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="T279" s="1" t="s">
         <v>21</v>
@@ -12280,60 +12444,9 @@
         <f t="shared" si="4"/>
         <v>304</v>
       </c>
-      <c r="D280" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F280" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G280" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H280" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I280" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J280" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K280" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L280" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M280" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N280" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O280" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P280" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q280" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R280" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S280" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T280" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U280" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="E280" s="2"/>
+      <c r="H280" s="2"/>
+      <c r="U280" s="2"/>
     </row>
     <row r="281" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
@@ -12346,60 +12459,9 @@
         <f t="shared" si="4"/>
         <v>305</v>
       </c>
-      <c r="D281" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F281" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G281" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H281" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I281" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J281" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K281" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L281" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M281" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N281" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O281" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P281" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q281" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R281" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S281" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T281" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U281" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="E281" s="2"/>
+      <c r="H281" s="2"/>
+      <c r="U281" s="2"/>
     </row>
     <row r="282" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
@@ -12412,60 +12474,9 @@
         <f t="shared" si="4"/>
         <v>306</v>
       </c>
-      <c r="D282" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G282" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H282" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I282" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J282" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K282" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L282" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M282" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N282" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O282" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P282" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q282" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R282" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S282" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T282" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U282" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="E282" s="2"/>
+      <c r="H282" s="2"/>
+      <c r="U282" s="2"/>
     </row>
     <row r="283" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
@@ -12478,60 +12489,10 @@
         <f t="shared" si="4"/>
         <v>307</v>
       </c>
-      <c r="D283" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F283" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G283" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H283" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I283" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J283" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K283" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L283" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M283" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N283" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O283" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P283" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q283" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R283" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S283" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T283" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U283" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="E283" s="2"/>
+      <c r="H283" s="2"/>
+      <c r="M283" s="2"/>
+      <c r="U283" s="2"/>
     </row>
     <row r="284" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
@@ -12544,60 +12505,9 @@
         <f t="shared" si="4"/>
         <v>308</v>
       </c>
-      <c r="D284" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F284" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G284" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H284" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I284" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J284" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K284" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L284" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M284" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N284" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O284" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P284" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q284" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R284" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S284" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T284" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U284" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="E284" s="2"/>
+      <c r="H284" s="2"/>
+      <c r="U284" s="2"/>
     </row>
     <row r="285" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
@@ -12626,7 +12536,7 @@
         <v>21</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>22</v>
@@ -12641,7 +12551,7 @@
         <v>21</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K286" s="1" t="s">
         <v>21</v>
@@ -12668,7 +12578,7 @@
         <v>21</v>
       </c>
       <c r="S286" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T286" s="1" t="s">
         <v>21</v>
@@ -12692,7 +12602,7 @@
         <v>21</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>22</v>
@@ -12707,7 +12617,7 @@
         <v>21</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K287" s="1" t="s">
         <v>21</v>
@@ -12734,7 +12644,7 @@
         <v>21</v>
       </c>
       <c r="S287" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T287" s="1" t="s">
         <v>21</v>
@@ -12758,7 +12668,7 @@
         <v>21</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>22</v>
@@ -12773,7 +12683,7 @@
         <v>21</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K288" s="1" t="s">
         <v>21</v>
@@ -12800,7 +12710,7 @@
         <v>21</v>
       </c>
       <c r="S288" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T288" s="1" t="s">
         <v>21</v>
@@ -12824,7 +12734,7 @@
         <v>21</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>22</v>
@@ -12839,7 +12749,7 @@
         <v>21</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K289" s="1" t="s">
         <v>21</v>
@@ -12848,7 +12758,7 @@
         <v>21</v>
       </c>
       <c r="M289" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N289" s="1" t="s">
         <v>21</v>
@@ -12866,7 +12776,7 @@
         <v>21</v>
       </c>
       <c r="S289" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T289" s="1" t="s">
         <v>21</v>
@@ -12890,7 +12800,7 @@
         <v>21</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>22</v>
@@ -12905,7 +12815,7 @@
         <v>21</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K290" s="1" t="s">
         <v>21</v>
@@ -12932,7 +12842,7 @@
         <v>21</v>
       </c>
       <c r="S290" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T290" s="1" t="s">
         <v>21</v>
@@ -12956,7 +12866,7 @@
         <v>21</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>22</v>
@@ -12965,13 +12875,13 @@
         <v>23</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I291" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K291" s="1" t="s">
         <v>21</v>
@@ -12998,7 +12908,7 @@
         <v>21</v>
       </c>
       <c r="S291" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T291" s="1" t="s">
         <v>21</v>
@@ -13022,7 +12932,7 @@
         <v>21</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>22</v>
@@ -13031,13 +12941,13 @@
         <v>23</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I292" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K292" s="1" t="s">
         <v>21</v>
@@ -13064,7 +12974,7 @@
         <v>21</v>
       </c>
       <c r="S292" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T292" s="1" t="s">
         <v>21</v>
@@ -13088,7 +12998,7 @@
         <v>21</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>22</v>
@@ -13097,13 +13007,13 @@
         <v>23</v>
       </c>
       <c r="H293" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I293" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K293" s="1" t="s">
         <v>21</v>
@@ -13130,7 +13040,7 @@
         <v>21</v>
       </c>
       <c r="S293" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T293" s="1" t="s">
         <v>21</v>
@@ -13154,7 +13064,7 @@
         <v>21</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>22</v>
@@ -13163,13 +13073,13 @@
         <v>23</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I294" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K294" s="1" t="s">
         <v>21</v>
@@ -13178,7 +13088,7 @@
         <v>21</v>
       </c>
       <c r="M294" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N294" s="1" t="s">
         <v>21</v>
@@ -13196,7 +13106,7 @@
         <v>21</v>
       </c>
       <c r="S294" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T294" s="1" t="s">
         <v>21</v>
@@ -13220,7 +13130,7 @@
         <v>21</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>22</v>
@@ -13229,13 +13139,13 @@
         <v>23</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I295" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K295" s="1" t="s">
         <v>21</v>
@@ -13262,7 +13172,7 @@
         <v>21</v>
       </c>
       <c r="S295" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T295" s="1" t="s">
         <v>21</v>
@@ -13286,7 +13196,7 @@
         <v>21</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>22</v>
@@ -13301,7 +13211,7 @@
         <v>21</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K296" s="1" t="s">
         <v>21</v>
@@ -13316,7 +13226,7 @@
         <v>21</v>
       </c>
       <c r="O296" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P296" s="1" t="s">
         <v>21</v>
@@ -13328,7 +13238,7 @@
         <v>21</v>
       </c>
       <c r="S296" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T296" s="1" t="s">
         <v>21</v>
@@ -13352,7 +13262,7 @@
         <v>21</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>22</v>
@@ -13367,7 +13277,7 @@
         <v>21</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K297" s="1" t="s">
         <v>21</v>
@@ -13382,7 +13292,7 @@
         <v>21</v>
       </c>
       <c r="O297" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P297" s="1" t="s">
         <v>21</v>
@@ -13394,7 +13304,7 @@
         <v>21</v>
       </c>
       <c r="S297" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T297" s="1" t="s">
         <v>21</v>
@@ -13418,7 +13328,7 @@
         <v>21</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>22</v>
@@ -13433,7 +13343,7 @@
         <v>21</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K298" s="1" t="s">
         <v>21</v>
@@ -13448,7 +13358,7 @@
         <v>21</v>
       </c>
       <c r="O298" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P298" s="1" t="s">
         <v>21</v>
@@ -13460,7 +13370,7 @@
         <v>21</v>
       </c>
       <c r="S298" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T298" s="1" t="s">
         <v>21</v>
@@ -13484,7 +13394,7 @@
         <v>21</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>22</v>
@@ -13499,7 +13409,7 @@
         <v>21</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K299" s="1" t="s">
         <v>21</v>
@@ -13508,13 +13418,13 @@
         <v>21</v>
       </c>
       <c r="M299" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N299" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O299" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P299" s="1" t="s">
         <v>21</v>
@@ -13526,7 +13436,7 @@
         <v>21</v>
       </c>
       <c r="S299" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T299" s="1" t="s">
         <v>21</v>
@@ -13550,7 +13460,7 @@
         <v>21</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>22</v>
@@ -13565,7 +13475,7 @@
         <v>21</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K300" s="1" t="s">
         <v>21</v>
@@ -13580,7 +13490,7 @@
         <v>21</v>
       </c>
       <c r="O300" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P300" s="1" t="s">
         <v>21</v>
@@ -13592,7 +13502,7 @@
         <v>21</v>
       </c>
       <c r="S300" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T300" s="1" t="s">
         <v>21</v>
@@ -13616,7 +13526,7 @@
         <v>21</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>22</v>
@@ -13625,29 +13535,29 @@
         <v>23</v>
       </c>
       <c r="H301" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K301" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L301" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M301" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N301" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O301" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I301" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J301" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K301" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L301" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M301" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N301" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O301" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="P301" s="1" t="s">
         <v>21</v>
       </c>
@@ -13658,7 +13568,7 @@
         <v>21</v>
       </c>
       <c r="S301" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T301" s="1" t="s">
         <v>21</v>
@@ -13682,7 +13592,7 @@
         <v>21</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>22</v>
@@ -13691,29 +13601,29 @@
         <v>23</v>
       </c>
       <c r="H302" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K302" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L302" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M302" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N302" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O302" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I302" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J302" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K302" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L302" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M302" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N302" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O302" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="P302" s="1" t="s">
         <v>21</v>
       </c>
@@ -13724,7 +13634,7 @@
         <v>21</v>
       </c>
       <c r="S302" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T302" s="1" t="s">
         <v>21</v>
@@ -13748,7 +13658,7 @@
         <v>21</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>22</v>
@@ -13757,29 +13667,29 @@
         <v>23</v>
       </c>
       <c r="H303" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I303" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K303" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L303" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M303" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N303" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O303" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I303" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J303" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K303" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L303" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M303" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N303" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O303" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="P303" s="1" t="s">
         <v>21</v>
       </c>
@@ -13790,7 +13700,7 @@
         <v>21</v>
       </c>
       <c r="S303" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T303" s="1" t="s">
         <v>21</v>
@@ -13814,7 +13724,7 @@
         <v>21</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>22</v>
@@ -13823,29 +13733,29 @@
         <v>23</v>
       </c>
       <c r="H304" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I304" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K304" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L304" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M304" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N304" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O304" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I304" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J304" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K304" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L304" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M304" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N304" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O304" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="P304" s="1" t="s">
         <v>21</v>
       </c>
@@ -13856,7 +13766,7 @@
         <v>21</v>
       </c>
       <c r="S304" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T304" s="1" t="s">
         <v>21</v>
@@ -13880,7 +13790,7 @@
         <v>21</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>22</v>
@@ -13889,29 +13799,29 @@
         <v>23</v>
       </c>
       <c r="H305" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K305" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L305" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M305" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N305" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O305" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I305" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J305" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K305" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L305" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M305" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N305" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O305" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="P305" s="1" t="s">
         <v>21</v>
       </c>
@@ -13922,7 +13832,7 @@
         <v>21</v>
       </c>
       <c r="S305" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="T305" s="1" t="s">
         <v>21</v>
@@ -13958,7 +13868,7 @@
         <v>21</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>22</v>
@@ -13967,13 +13877,13 @@
         <v>23</v>
       </c>
       <c r="H307" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I307" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J307" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K307" s="1" t="s">
         <v>21</v>
@@ -14000,7 +13910,7 @@
         <v>21</v>
       </c>
       <c r="S307" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T307" s="1" t="s">
         <v>21</v>
@@ -14525,7 +14435,7 @@
         <v>21</v>
       </c>
       <c r="L348" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M348" s="1" t="s">
         <v>21</v>
@@ -14546,7 +14456,7 @@
         <v>21</v>
       </c>
       <c r="S348" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T348" s="1" t="s">
         <v>21</v>
@@ -14591,7 +14501,7 @@
         <v>21</v>
       </c>
       <c r="M349" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N349" s="1" t="s">
         <v>21</v>
@@ -14609,7 +14519,7 @@
         <v>21</v>
       </c>
       <c r="S349" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T349" s="1" t="s">
         <v>21</v>
@@ -14651,7 +14561,7 @@
         <v>21</v>
       </c>
       <c r="L350" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M350" s="1" t="s">
         <v>21</v>
@@ -14672,7 +14582,7 @@
         <v>21</v>
       </c>
       <c r="S350" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T350" s="2" t="s">
         <v>31</v>
@@ -14717,7 +14627,7 @@
         <v>21</v>
       </c>
       <c r="M351" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N351" s="1" t="s">
         <v>21</v>
@@ -14735,7 +14645,7 @@
         <v>21</v>
       </c>
       <c r="S351" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T351" s="2" t="s">
         <v>31</v>
@@ -14789,7 +14699,7 @@
         <v>21</v>
       </c>
       <c r="L353" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M353" s="1" t="s">
         <v>21</v>
@@ -14810,7 +14720,7 @@
         <v>21</v>
       </c>
       <c r="S353" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T353" s="1" t="s">
         <v>21</v>
@@ -14843,7 +14753,7 @@
         <v>21</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>22</v>
@@ -14867,7 +14777,7 @@
         <v>21</v>
       </c>
       <c r="M355" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N355" s="1" t="s">
         <v>21</v>
@@ -14906,7 +14816,7 @@
         <v>21</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>22</v>
@@ -14930,7 +14840,7 @@
         <v>21</v>
       </c>
       <c r="M356" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N356" s="1" t="s">
         <v>21</v>
@@ -15080,7 +14990,7 @@
         <v>21</v>
       </c>
       <c r="J365" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K365" s="1" t="s">
         <v>21</v>
@@ -15155,7 +15065,7 @@
         <v>21</v>
       </c>
       <c r="J367" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K367" s="1" t="s">
         <v>21</v>
@@ -15182,7 +15092,7 @@
         <v>21</v>
       </c>
       <c r="S367" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="T367" s="1" t="s">
         <v>21</v>
@@ -15230,7 +15140,7 @@
         <v>21</v>
       </c>
       <c r="J369" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K369" s="1" t="s">
         <v>21</v>
@@ -15257,7 +15167,7 @@
         <v>21</v>
       </c>
       <c r="S369" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="T369" s="1" t="s">
         <v>21</v>
@@ -15293,7 +15203,7 @@
         <v>21</v>
       </c>
       <c r="J370" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K370" s="1" t="s">
         <v>21</v>
@@ -15356,7 +15266,7 @@
         <v>21</v>
       </c>
       <c r="J371" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K371" s="1" t="s">
         <v>21</v>
@@ -15383,7 +15293,7 @@
         <v>21</v>
       </c>
       <c r="S371" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T371" s="1" t="s">
         <v>21</v>
@@ -15419,7 +15329,7 @@
         <v>21</v>
       </c>
       <c r="J372" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K372" s="1" t="s">
         <v>21</v>
@@ -15446,7 +15356,7 @@
         <v>21</v>
       </c>
       <c r="S372" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="T372" s="1" t="s">
         <v>21</v>
@@ -15482,7 +15392,7 @@
         <v>21</v>
       </c>
       <c r="J373" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K373" s="1" t="s">
         <v>21</v>
@@ -15509,7 +15419,7 @@
         <v>21</v>
       </c>
       <c r="S373" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="T373" s="1" t="s">
         <v>21</v>
@@ -15545,7 +15455,7 @@
         <v>21</v>
       </c>
       <c r="J374" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K374" s="1" t="s">
         <v>21</v>
@@ -15569,7 +15479,7 @@
         <v>21</v>
       </c>
       <c r="R374" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S374" s="1" t="s">
         <v>21</v>
@@ -15620,7 +15530,7 @@
         <v>21</v>
       </c>
       <c r="J376" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K376" s="1" t="s">
         <v>21</v>
@@ -15647,7 +15557,7 @@
         <v>21</v>
       </c>
       <c r="S376" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T376" s="1" t="s">
         <v>21</v>
@@ -15686,7 +15596,7 @@
         <v>21</v>
       </c>
       <c r="J377" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K377" s="1" t="s">
         <v>21</v>
@@ -15752,7 +15662,7 @@
         <v>21</v>
       </c>
       <c r="J378" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K378" s="1" t="s">
         <v>21</v>
@@ -15818,7 +15728,7 @@
         <v>21</v>
       </c>
       <c r="J379" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K379" s="1" t="s">
         <v>21</v>
@@ -15845,7 +15755,7 @@
         <v>21</v>
       </c>
       <c r="S379" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T379" s="1" t="s">
         <v>21</v>
@@ -15884,7 +15794,7 @@
         <v>21</v>
       </c>
       <c r="J380" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K380" s="1" t="s">
         <v>21</v>
@@ -15950,7 +15860,7 @@
         <v>21</v>
       </c>
       <c r="J381" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K381" s="1" t="s">
         <v>21</v>
@@ -16028,7 +15938,7 @@
         <v>21</v>
       </c>
       <c r="J383" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K383" s="1" t="s">
         <v>21</v>
@@ -16094,7 +16004,7 @@
         <v>21</v>
       </c>
       <c r="J384" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K384" s="1" t="s">
         <v>21</v>
@@ -16121,7 +16031,7 @@
         <v>21</v>
       </c>
       <c r="S384" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T384" s="1" t="s">
         <v>21</v>
@@ -16160,7 +16070,7 @@
         <v>21</v>
       </c>
       <c r="J385" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K385" s="1" t="s">
         <v>21</v>
@@ -16187,7 +16097,7 @@
         <v>21</v>
       </c>
       <c r="S385" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T385" s="1" t="s">
         <v>21</v>
@@ -16220,13 +16130,13 @@
         <v>23</v>
       </c>
       <c r="H386" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I386" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J386" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K386" s="1" t="s">
         <v>21</v>
@@ -16286,13 +16196,13 @@
         <v>23</v>
       </c>
       <c r="H387" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I387" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J387" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K387" s="1" t="s">
         <v>21</v>
@@ -16319,7 +16229,7 @@
         <v>21</v>
       </c>
       <c r="S387" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T387" s="1" t="s">
         <v>21</v>
@@ -16352,13 +16262,13 @@
         <v>23</v>
       </c>
       <c r="H388" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I388" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J388" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K388" s="1" t="s">
         <v>21</v>
@@ -16385,7 +16295,7 @@
         <v>21</v>
       </c>
       <c r="S388" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T388" s="1" t="s">
         <v>21</v>
@@ -16424,7 +16334,7 @@
         <v>21</v>
       </c>
       <c r="J389" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K389" s="1" t="s">
         <v>21</v>
@@ -16439,7 +16349,7 @@
         <v>21</v>
       </c>
       <c r="O389" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P389" s="1" t="s">
         <v>21</v>
@@ -16490,7 +16400,7 @@
         <v>21</v>
       </c>
       <c r="J390" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K390" s="1" t="s">
         <v>21</v>
@@ -16505,7 +16415,7 @@
         <v>21</v>
       </c>
       <c r="O390" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P390" s="1" t="s">
         <v>21</v>
@@ -16517,7 +16427,7 @@
         <v>21</v>
       </c>
       <c r="S390" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T390" s="1" t="s">
         <v>21</v>
@@ -16556,7 +16466,7 @@
         <v>21</v>
       </c>
       <c r="J391" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K391" s="1" t="s">
         <v>21</v>
@@ -16571,7 +16481,7 @@
         <v>21</v>
       </c>
       <c r="O391" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P391" s="1" t="s">
         <v>21</v>
@@ -16583,7 +16493,7 @@
         <v>21</v>
       </c>
       <c r="S391" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T391" s="1" t="s">
         <v>21</v>
@@ -16616,28 +16526,28 @@
         <v>23</v>
       </c>
       <c r="H392" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I392" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J392" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K392" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L392" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M392" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N392" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O392" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="I392" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J392" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K392" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L392" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M392" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N392" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O392" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="P392" s="1" t="s">
         <v>21</v>
@@ -16682,29 +16592,29 @@
         <v>23</v>
       </c>
       <c r="H393" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I393" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J393" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K393" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L393" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M393" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N393" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O393" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I393" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J393" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K393" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L393" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M393" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N393" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O393" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="P393" s="1" t="s">
         <v>21</v>
       </c>
@@ -16715,7 +16625,7 @@
         <v>21</v>
       </c>
       <c r="S393" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T393" s="1" t="s">
         <v>21</v>
@@ -16748,29 +16658,29 @@
         <v>23</v>
       </c>
       <c r="H394" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I394" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J394" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K394" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L394" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M394" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N394" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O394" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I394" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J394" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K394" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L394" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M394" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N394" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O394" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="P394" s="1" t="s">
         <v>21</v>
       </c>
@@ -16781,7 +16691,7 @@
         <v>21</v>
       </c>
       <c r="S394" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T394" s="1" t="s">
         <v>21</v>
@@ -16826,13 +16736,13 @@
         <v>23</v>
       </c>
       <c r="H396" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I396" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J396" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K396" s="1" t="s">
         <v>21</v>
@@ -16892,13 +16802,13 @@
         <v>23</v>
       </c>
       <c r="H397" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I397" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J397" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K397" s="1" t="s">
         <v>21</v>
@@ -16925,7 +16835,7 @@
         <v>21</v>
       </c>
       <c r="S397" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T397" s="1" t="s">
         <v>21</v>
@@ -16982,13 +16892,13 @@
         <v>23</v>
       </c>
       <c r="H400" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I400" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J400" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K400" s="1" t="s">
         <v>21</v>
@@ -17072,13 +16982,13 @@
         <v>23</v>
       </c>
       <c r="H403" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I403" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J403" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K403" s="1" t="s">
         <v>21</v>
@@ -17105,7 +17015,7 @@
         <v>21</v>
       </c>
       <c r="S403" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="T403" s="1" t="s">
         <v>21</v>
@@ -17174,13 +17084,13 @@
         <v>23</v>
       </c>
       <c r="H407" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I407" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J407" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K407" s="1" t="s">
         <v>21</v>
@@ -17207,7 +17117,7 @@
         <v>21</v>
       </c>
       <c r="S407" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T407" s="1" t="s">
         <v>21</v>
@@ -17240,13 +17150,13 @@
         <v>23</v>
       </c>
       <c r="H408" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I408" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J408" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K408" s="1" t="s">
         <v>21</v>
@@ -17334,13 +17244,13 @@
         <v>23</v>
       </c>
       <c r="H411" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I411" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J411" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K411" s="1" t="s">
         <v>21</v>
@@ -17367,7 +17277,7 @@
         <v>21</v>
       </c>
       <c r="S411" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="T411" s="1" t="s">
         <v>21</v>
@@ -17442,13 +17352,13 @@
         <v>23</v>
       </c>
       <c r="H415" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I415" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J415" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K415" s="1" t="s">
         <v>21</v>
@@ -17475,7 +17385,7 @@
         <v>21</v>
       </c>
       <c r="S415" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T415" s="1" t="s">
         <v>21</v>
@@ -18573,7 +18483,7 @@
         <v>21</v>
       </c>
       <c r="S451" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T451" s="1" t="s">
         <v>21</v>
@@ -18636,7 +18546,7 @@
         <v>21</v>
       </c>
       <c r="S452" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="T452" s="1" t="s">
         <v>21</v>
@@ -18699,7 +18609,7 @@
         <v>21</v>
       </c>
       <c r="S453" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="T453" s="1" t="s">
         <v>21</v>
@@ -18762,7 +18672,7 @@
         <v>21</v>
       </c>
       <c r="S454" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T454" s="1" t="s">
         <v>21</v>
@@ -18861,7 +18771,7 @@
         <v>21</v>
       </c>
       <c r="S458" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T458" s="1" t="s">
         <v>21</v>
@@ -18903,7 +18813,7 @@
         <v>21</v>
       </c>
       <c r="L459" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M459" s="1" t="s">
         <v>21</v>
@@ -18924,7 +18834,7 @@
         <v>21</v>
       </c>
       <c r="S459" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T459" s="1" t="s">
         <v>21</v>
@@ -18969,7 +18879,7 @@
         <v>21</v>
       </c>
       <c r="M460" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N460" s="1" t="s">
         <v>21</v>
@@ -18987,7 +18897,7 @@
         <v>21</v>
       </c>
       <c r="S460" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T460" s="1" t="s">
         <v>21</v>
@@ -19050,7 +18960,7 @@
         <v>21</v>
       </c>
       <c r="S461" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T461" s="1" t="s">
         <v>21</v>
@@ -19113,7 +19023,7 @@
         <v>21</v>
       </c>
       <c r="S462" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="T462" s="1" t="s">
         <v>21</v>
@@ -19176,7 +19086,7 @@
         <v>21</v>
       </c>
       <c r="S463" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="T463" s="1" t="s">
         <v>21</v>
@@ -19227,7 +19137,7 @@
         <v>21</v>
       </c>
       <c r="K465" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L465" s="1" t="s">
         <v>21</v>
@@ -19251,7 +19161,7 @@
         <v>21</v>
       </c>
       <c r="S465" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T465" s="1" t="s">
         <v>21</v>
@@ -19290,7 +19200,7 @@
         <v>21</v>
       </c>
       <c r="K466" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L466" s="1" t="s">
         <v>21</v>
@@ -19314,7 +19224,7 @@
         <v>21</v>
       </c>
       <c r="S466" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T466" s="1" t="s">
         <v>21</v>
@@ -19332,7 +19242,7 @@
         <v>491</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E467" s="1" t="s">
         <v>21</v>
@@ -19353,7 +19263,7 @@
         <v>21</v>
       </c>
       <c r="K467" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L467" s="1" t="s">
         <v>21</v>
@@ -19377,7 +19287,7 @@
         <v>21</v>
       </c>
       <c r="S467" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T467" s="1" t="s">
         <v>21</v>
@@ -19441,7 +19351,7 @@
         <v>21</v>
       </c>
       <c r="K470" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L470" s="1" t="s">
         <v>21</v>
@@ -19465,7 +19375,7 @@
         <v>21</v>
       </c>
       <c r="S470" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T470" s="1" t="s">
         <v>21</v>
@@ -19504,7 +19414,7 @@
         <v>21</v>
       </c>
       <c r="K471" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L471" s="1" t="s">
         <v>21</v>
@@ -19528,7 +19438,7 @@
         <v>21</v>
       </c>
       <c r="S471" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T471" s="1" t="s">
         <v>21</v>
@@ -19567,7 +19477,7 @@
         <v>21</v>
       </c>
       <c r="K472" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L472" s="1" t="s">
         <v>21</v>
@@ -19591,7 +19501,7 @@
         <v>21</v>
       </c>
       <c r="S472" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T472" s="1" t="s">
         <v>21</v>
@@ -19679,7 +19589,7 @@
         <v>21</v>
       </c>
       <c r="S475" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T475" s="1" t="s">
         <v>21</v>
@@ -19721,7 +19631,7 @@
         <v>21</v>
       </c>
       <c r="K476" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L476" s="2" t="s">
         <v>21</v>
@@ -19745,7 +19655,7 @@
         <v>21</v>
       </c>
       <c r="S476" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T476" s="1" t="s">
         <v>21</v>
@@ -19787,7 +19697,7 @@
         <v>21</v>
       </c>
       <c r="K477" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L477" s="2" t="s">
         <v>21</v>
@@ -19811,7 +19721,7 @@
         <v>21</v>
       </c>
       <c r="S477" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T477" s="1" t="s">
         <v>21</v>
@@ -19850,7 +19760,7 @@
         <v>21</v>
       </c>
       <c r="J478" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K478" s="2" t="s">
         <v>21</v>
@@ -19877,7 +19787,7 @@
         <v>21</v>
       </c>
       <c r="S478" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T478" s="1" t="s">
         <v>21</v>
@@ -19916,7 +19826,7 @@
         <v>21</v>
       </c>
       <c r="J479" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K479" s="2" t="s">
         <v>21</v>
@@ -19943,7 +19853,7 @@
         <v>21</v>
       </c>
       <c r="S479" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T479" s="1" t="s">
         <v>21</v>
@@ -19985,7 +19895,7 @@
         <v>21</v>
       </c>
       <c r="K480" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L480" s="2" t="s">
         <v>21</v>
@@ -20009,7 +19919,7 @@
         <v>21</v>
       </c>
       <c r="S480" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T480" s="1" t="s">
         <v>21</v>
@@ -20051,7 +19961,7 @@
         <v>21</v>
       </c>
       <c r="K481" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L481" s="2" t="s">
         <v>21</v>
@@ -20075,7 +19985,7 @@
         <v>21</v>
       </c>
       <c r="S481" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T481" s="1" t="s">
         <v>21</v>
@@ -20117,7 +20027,7 @@
         <v>21</v>
       </c>
       <c r="K482" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L482" s="2" t="s">
         <v>21</v>
@@ -20141,7 +20051,7 @@
         <v>21</v>
       </c>
       <c r="S482" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T482" s="1" t="s">
         <v>21</v>
@@ -20183,7 +20093,7 @@
         <v>21</v>
       </c>
       <c r="K483" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L483" s="2" t="s">
         <v>21</v>
@@ -20207,7 +20117,7 @@
         <v>21</v>
       </c>
       <c r="S483" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T483" s="1" t="s">
         <v>21</v>
@@ -20249,7 +20159,7 @@
         <v>21</v>
       </c>
       <c r="K484" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L484" s="2" t="s">
         <v>21</v>
@@ -20273,7 +20183,7 @@
         <v>21</v>
       </c>
       <c r="S484" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T484" s="1" t="s">
         <v>21</v>
@@ -20339,7 +20249,7 @@
         <v>21</v>
       </c>
       <c r="S485" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T485" s="1" t="s">
         <v>21</v>
@@ -20381,7 +20291,7 @@
         <v>21</v>
       </c>
       <c r="K486" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L486" s="2" t="s">
         <v>21</v>
@@ -20405,7 +20315,7 @@
         <v>21</v>
       </c>
       <c r="S486" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T486" s="1" t="s">
         <v>21</v>
@@ -20447,7 +20357,7 @@
         <v>21</v>
       </c>
       <c r="K487" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L487" s="2" t="s">
         <v>21</v>
@@ -20471,7 +20381,7 @@
         <v>21</v>
       </c>
       <c r="S487" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T487" s="1" t="s">
         <v>21</v>
@@ -20510,7 +20420,7 @@
         <v>21</v>
       </c>
       <c r="J488" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K488" s="2" t="s">
         <v>21</v>
@@ -20537,7 +20447,7 @@
         <v>21</v>
       </c>
       <c r="S488" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T488" s="1" t="s">
         <v>21</v>
@@ -20576,7 +20486,7 @@
         <v>21</v>
       </c>
       <c r="J489" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K489" s="2" t="s">
         <v>21</v>
@@ -20603,7 +20513,7 @@
         <v>21</v>
       </c>
       <c r="S489" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T489" s="1" t="s">
         <v>21</v>
@@ -20645,7 +20555,7 @@
         <v>21</v>
       </c>
       <c r="K490" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L490" s="2" t="s">
         <v>21</v>
@@ -20669,7 +20579,7 @@
         <v>21</v>
       </c>
       <c r="S490" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T490" s="1" t="s">
         <v>21</v>
@@ -20711,7 +20621,7 @@
         <v>21</v>
       </c>
       <c r="K491" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L491" s="2" t="s">
         <v>21</v>
@@ -20735,7 +20645,7 @@
         <v>21</v>
       </c>
       <c r="S491" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T491" s="1" t="s">
         <v>21</v>
@@ -20777,7 +20687,7 @@
         <v>21</v>
       </c>
       <c r="K492" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L492" s="2" t="s">
         <v>21</v>
@@ -20801,7 +20711,7 @@
         <v>21</v>
       </c>
       <c r="S492" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T492" s="1" t="s">
         <v>21</v>
@@ -20843,7 +20753,7 @@
         <v>21</v>
       </c>
       <c r="K493" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L493" s="2" t="s">
         <v>21</v>
@@ -20867,7 +20777,7 @@
         <v>21</v>
       </c>
       <c r="S493" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T493" s="1" t="s">
         <v>21</v>
@@ -20909,7 +20819,7 @@
         <v>21</v>
       </c>
       <c r="K494" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L494" s="2" t="s">
         <v>21</v>
@@ -20933,7 +20843,7 @@
         <v>21</v>
       </c>
       <c r="S494" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T494" s="1" t="s">
         <v>21</v>
@@ -20999,7 +20909,7 @@
         <v>21</v>
       </c>
       <c r="S495" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T495" s="1" t="s">
         <v>21</v>
@@ -21041,7 +20951,7 @@
         <v>21</v>
       </c>
       <c r="K496" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L496" s="2" t="s">
         <v>21</v>
@@ -21065,7 +20975,7 @@
         <v>21</v>
       </c>
       <c r="S496" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T496" s="1" t="s">
         <v>21</v>
@@ -21107,7 +21017,7 @@
         <v>21</v>
       </c>
       <c r="K497" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L497" s="2" t="s">
         <v>21</v>
@@ -21131,7 +21041,7 @@
         <v>21</v>
       </c>
       <c r="S497" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T497" s="1" t="s">
         <v>21</v>
@@ -21170,7 +21080,7 @@
         <v>21</v>
       </c>
       <c r="J498" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K498" s="2" t="s">
         <v>21</v>
@@ -21197,7 +21107,7 @@
         <v>21</v>
       </c>
       <c r="S498" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T498" s="1" t="s">
         <v>21</v>
@@ -21236,7 +21146,7 @@
         <v>21</v>
       </c>
       <c r="J499" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K499" s="2" t="s">
         <v>21</v>
@@ -21263,7 +21173,7 @@
         <v>21</v>
       </c>
       <c r="S499" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T499" s="1" t="s">
         <v>21</v>
@@ -21305,7 +21215,7 @@
         <v>21</v>
       </c>
       <c r="K500" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L500" s="2" t="s">
         <v>21</v>
@@ -21329,7 +21239,7 @@
         <v>21</v>
       </c>
       <c r="S500" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T500" s="1" t="s">
         <v>21</v>
@@ -21371,7 +21281,7 @@
         <v>21</v>
       </c>
       <c r="K501" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L501" s="2" t="s">
         <v>21</v>
@@ -21395,7 +21305,7 @@
         <v>21</v>
       </c>
       <c r="S501" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T501" s="1" t="s">
         <v>21</v>
@@ -21437,7 +21347,7 @@
         <v>21</v>
       </c>
       <c r="K502" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L502" s="2" t="s">
         <v>21</v>
@@ -21461,7 +21371,7 @@
         <v>21</v>
       </c>
       <c r="S502" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T502" s="1" t="s">
         <v>21</v>
@@ -21503,7 +21413,7 @@
         <v>21</v>
       </c>
       <c r="K503" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L503" s="2" t="s">
         <v>21</v>
@@ -21527,7 +21437,7 @@
         <v>21</v>
       </c>
       <c r="S503" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T503" s="1" t="s">
         <v>21</v>
@@ -21569,7 +21479,7 @@
         <v>21</v>
       </c>
       <c r="K504" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L504" s="2" t="s">
         <v>21</v>
@@ -21593,7 +21503,7 @@
         <v>21</v>
       </c>
       <c r="S504" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T504" s="1" t="s">
         <v>21</v>
@@ -21659,7 +21569,7 @@
         <v>21</v>
       </c>
       <c r="S505" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T505" s="1" t="s">
         <v>21</v>
@@ -21701,7 +21611,7 @@
         <v>21</v>
       </c>
       <c r="K506" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L506" s="2" t="s">
         <v>21</v>
@@ -21725,7 +21635,7 @@
         <v>21</v>
       </c>
       <c r="S506" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T506" s="1" t="s">
         <v>21</v>
@@ -21767,7 +21677,7 @@
         <v>21</v>
       </c>
       <c r="K507" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L507" s="2" t="s">
         <v>21</v>
@@ -21791,7 +21701,7 @@
         <v>21</v>
       </c>
       <c r="S507" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T507" s="1" t="s">
         <v>21</v>
@@ -21830,7 +21740,7 @@
         <v>21</v>
       </c>
       <c r="J508" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K508" s="2" t="s">
         <v>21</v>
@@ -21857,7 +21767,7 @@
         <v>21</v>
       </c>
       <c r="S508" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T508" s="1" t="s">
         <v>21</v>
@@ -21896,7 +21806,7 @@
         <v>21</v>
       </c>
       <c r="J509" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K509" s="2" t="s">
         <v>21</v>
@@ -21923,7 +21833,7 @@
         <v>21</v>
       </c>
       <c r="S509" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T509" s="1" t="s">
         <v>21</v>
@@ -21965,7 +21875,7 @@
         <v>21</v>
       </c>
       <c r="K510" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L510" s="2" t="s">
         <v>21</v>
@@ -21989,7 +21899,7 @@
         <v>21</v>
       </c>
       <c r="S510" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T510" s="1" t="s">
         <v>21</v>
@@ -22031,7 +21941,7 @@
         <v>21</v>
       </c>
       <c r="K511" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L511" s="2" t="s">
         <v>21</v>
@@ -22055,7 +21965,7 @@
         <v>21</v>
       </c>
       <c r="S511" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T511" s="1" t="s">
         <v>21</v>
@@ -22097,7 +22007,7 @@
         <v>21</v>
       </c>
       <c r="K512" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L512" s="2" t="s">
         <v>21</v>
@@ -22121,7 +22031,7 @@
         <v>21</v>
       </c>
       <c r="S512" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T512" s="1" t="s">
         <v>21</v>
@@ -22163,7 +22073,7 @@
         <v>21</v>
       </c>
       <c r="K513" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L513" s="2" t="s">
         <v>21</v>
@@ -22187,7 +22097,7 @@
         <v>21</v>
       </c>
       <c r="S513" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T513" s="1" t="s">
         <v>21</v>
@@ -22229,7 +22139,7 @@
         <v>21</v>
       </c>
       <c r="K514" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L514" s="2" t="s">
         <v>21</v>
@@ -22253,7 +22163,7 @@
         <v>21</v>
       </c>
       <c r="S514" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="T514" s="1" t="s">
         <v>21</v>
